--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Element</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Natural gas consumption [MMcf/yr]</t>
-  </si>
-  <si>
-    <t>Productivity [MMGGE/yr]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -452,13 +449,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,9 +469,8 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -502,331 +498,298 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>0.02791719792994826</v>
+        <v>0.03101110111011101</v>
       </c>
       <c r="E4">
-        <v>-0.05608490212255307</v>
+        <v>0.06406240624062405</v>
       </c>
       <c r="F4">
-        <v>-0.03212330308257707</v>
+        <v>0.04825682568256826</v>
       </c>
       <c r="G4">
-        <v>-0.05728493212330309</v>
+        <v>0.06061806180618062</v>
       </c>
       <c r="H4">
-        <v>-0.05588689717242932</v>
+        <v>0.06546654665466546</v>
       </c>
       <c r="I4">
-        <v>-0.08144753618840472</v>
+        <v>0.06549054905490548</v>
       </c>
       <c r="J4">
-        <v>-0.06124653116327909</v>
-      </c>
-      <c r="K4">
-        <v>0.06693767344183606</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>0.01461746174617462</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>0.03149478736968424</v>
+        <v>0.1322172217221722</v>
       </c>
       <c r="E5">
-        <v>0.1419245481137029</v>
+        <v>0.009756975697569756</v>
       </c>
       <c r="F5">
-        <v>-0.07035925898147455</v>
+        <v>0.0566096609660966</v>
       </c>
       <c r="G5">
-        <v>0.1415165379134478</v>
+        <v>0.007368736873687368</v>
       </c>
       <c r="H5">
-        <v>0.1410755268881722</v>
+        <v>-0.07786378637863785</v>
       </c>
       <c r="I5">
-        <v>0.08735768394209857</v>
+        <v>0.007644764476447644</v>
       </c>
       <c r="J5">
-        <v>0.1361659041476037</v>
-      </c>
-      <c r="K5">
-        <v>-0.05749793744843621</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>-0.0808160816081608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0.0005625140628515713</v>
+        <v>-0.05459345934593459</v>
       </c>
       <c r="E6">
-        <v>-0.05853146328658217</v>
+        <v>-0.06717071707170716</v>
       </c>
       <c r="F6">
-        <v>-0.06609315232880823</v>
+        <v>-0.01759375937593759</v>
       </c>
       <c r="G6">
-        <v>-0.06073651841296034</v>
+        <v>-0.06595859585958595</v>
       </c>
       <c r="H6">
-        <v>-0.05961299032475813</v>
+        <v>-0.01206120612061206</v>
       </c>
       <c r="I6">
-        <v>-0.06882022050551265</v>
+        <v>-0.0738073807380738</v>
       </c>
       <c r="J6">
-        <v>-0.06355658891472288</v>
-      </c>
-      <c r="K6">
-        <v>0.05253281332033301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>0.2141974197419742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>0.03695169516951695</v>
+      </c>
+      <c r="E7">
+        <v>0.7617641764176417</v>
+      </c>
+      <c r="F7">
+        <v>-0.03554755475547554</v>
+      </c>
+      <c r="G7">
+        <v>0.757011701170117</v>
+      </c>
+      <c r="H7">
+        <v>0.9993759375937593</v>
+      </c>
+      <c r="I7">
+        <v>0.7682568256825681</v>
+      </c>
+      <c r="J7">
+        <v>-0.3112871287128712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>0.08118952973824346</v>
-      </c>
-      <c r="E7">
-        <v>0.7636930923273083</v>
-      </c>
-      <c r="F7">
-        <v>-0.07201380034500864</v>
-      </c>
-      <c r="G7">
-        <v>0.7553033825845648</v>
-      </c>
-      <c r="H7">
-        <v>0.7671011775294383</v>
-      </c>
-      <c r="I7">
-        <v>0.9995259881497038</v>
-      </c>
-      <c r="J7">
-        <v>0.7776224405610143</v>
-      </c>
-      <c r="K7">
-        <v>-0.3720963024075602</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="C8">
+        <v>0.9584278427842783</v>
+      </c>
+      <c r="E8">
+        <v>0.05585358535853585</v>
+      </c>
+      <c r="F8">
+        <v>0.04326432643264326</v>
+      </c>
+      <c r="G8">
+        <v>0.05467746774677467</v>
+      </c>
+      <c r="H8">
+        <v>0.01578157815781578</v>
+      </c>
+      <c r="I8">
+        <v>0.0403000300030003</v>
+      </c>
+      <c r="J8">
+        <v>0.1121152115211521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>0.1387218721872187</v>
+      </c>
+      <c r="E9">
+        <v>0.119039903990399</v>
+      </c>
+      <c r="F9">
+        <v>-0.05066906690669067</v>
+      </c>
+      <c r="G9">
+        <v>0.1154395439543954</v>
+      </c>
+      <c r="H9">
+        <v>0.1215121512151215</v>
+      </c>
+      <c r="I9">
+        <v>0.1078307830783078</v>
+      </c>
+      <c r="J9">
+        <v>0.01686168616861686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8">
-        <v>0.9582809570239258</v>
-      </c>
-      <c r="E8">
-        <v>0.0310132753318833</v>
-      </c>
-      <c r="F8">
-        <v>0.03387234680867022</v>
-      </c>
-      <c r="G8">
-        <v>0.02821720543013576</v>
-      </c>
-      <c r="H8">
-        <v>0.03244731118277958</v>
-      </c>
-      <c r="I8">
-        <v>0.0424900622515563</v>
-      </c>
-      <c r="J8">
-        <v>0.02759318982974574</v>
-      </c>
-      <c r="K8">
-        <v>0.01339833495837396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>-0.01175579389484737</v>
-      </c>
-      <c r="E9">
-        <v>-0.02096152403810096</v>
-      </c>
-      <c r="F9">
-        <v>0.0617865446636166</v>
-      </c>
-      <c r="G9">
-        <v>-0.0216110402760069</v>
-      </c>
-      <c r="H9">
-        <v>-0.02025350633765844</v>
-      </c>
-      <c r="I9">
-        <v>0.02335708392709818</v>
-      </c>
-      <c r="J9">
-        <v>-0.01898597464936624</v>
-      </c>
-      <c r="K9">
-        <v>-0.06073051826295658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="C10">
+        <v>-0.03249924992499249</v>
+      </c>
+      <c r="E10">
+        <v>0.1228202820282028</v>
+      </c>
+      <c r="F10">
+        <v>0.05812181218121812</v>
+      </c>
+      <c r="G10">
+        <v>0.1216321632163216</v>
+      </c>
+      <c r="H10">
+        <v>-0.02137413741374137</v>
+      </c>
+      <c r="I10">
+        <v>0.123048304830483</v>
+      </c>
+      <c r="J10">
+        <v>-0.1335973597359736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10">
-        <v>0.07359333983349585</v>
-      </c>
-      <c r="E10">
-        <v>-0.004777619440486013</v>
-      </c>
-      <c r="F10">
-        <v>0.01294082352058802</v>
-      </c>
-      <c r="G10">
-        <v>-0.001500037500937524</v>
-      </c>
-      <c r="H10">
-        <v>-0.003657091427285683</v>
-      </c>
-      <c r="I10">
-        <v>-0.03273831845796145</v>
-      </c>
-      <c r="J10">
-        <v>-0.0102377559438986</v>
-      </c>
-      <c r="K10">
-        <v>-0.002038550963774095</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="C11">
-        <v>-0.02401560039000975</v>
+        <v>0.05375337533753375</v>
       </c>
       <c r="E11">
-        <v>0.09838145953648843</v>
+        <v>-0.152079207920792</v>
       </c>
       <c r="F11">
-        <v>0.05374184354608866</v>
+        <v>0.1324212421242124</v>
       </c>
       <c r="G11">
-        <v>0.1008010200255007</v>
+        <v>-0.1507950795079508</v>
       </c>
       <c r="H11">
-        <v>0.09703442586064653</v>
+        <v>-0.09653765376537653</v>
       </c>
       <c r="I11">
-        <v>0.1281542038550964</v>
+        <v>-0.1527512751275127</v>
       </c>
       <c r="J11">
-        <v>0.09863796594914874</v>
-      </c>
-      <c r="K11">
-        <v>0.009730743268581716</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>0.0911971197119712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12">
-        <v>0.09891097277431937</v>
+        <v>0.1594359435943594</v>
       </c>
       <c r="E12">
-        <v>0.5445781144528613</v>
+        <v>0.5028142814281428</v>
       </c>
       <c r="F12">
-        <v>0.04084002100052502</v>
+        <v>-0.1287848784878488</v>
       </c>
       <c r="G12">
-        <v>0.5542533563339084</v>
+        <v>0.508130813081308</v>
       </c>
       <c r="H12">
-        <v>0.5404620115502888</v>
+        <v>-0.1540594059405941</v>
       </c>
       <c r="I12">
-        <v>-0.09107927698192457</v>
+        <v>0.4959975997599759</v>
       </c>
       <c r="J12">
-        <v>0.5283537088427211</v>
-      </c>
-      <c r="K12">
-        <v>0.08235505887647192</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>-0.08205220522052205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2240081002025051</v>
+        <v>-0.2957815781578158</v>
       </c>
       <c r="E13">
-        <v>0.005824645616140405</v>
+        <v>-0.006168616861686168</v>
       </c>
       <c r="F13">
-        <v>0.1072016800420011</v>
+        <v>0.02201020102010201</v>
       </c>
       <c r="G13">
-        <v>0.003522088052201305</v>
+        <v>-0.007284728472847284</v>
       </c>
       <c r="H13">
-        <v>0.006535663391584791</v>
+        <v>0.009888988898889886</v>
       </c>
       <c r="I13">
-        <v>0.06078001950048752</v>
+        <v>-0.004776477647764776</v>
       </c>
       <c r="J13">
-        <v>0.004314107852696318</v>
-      </c>
-      <c r="K13">
-        <v>0.03126528163204081</v>
+        <v>-0.04154815481548155</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="C1:J1"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A11:A13"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Element</t>
   </si>
@@ -67,7 +67,10 @@
     <t>biorefinery</t>
   </si>
   <si>
-    <t>Lipid content [dry wt. %]</t>
+    <t>Cane lipid content [dry wt. %]</t>
+  </si>
+  <si>
+    <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Lipid retention [%]</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -515,25 +518,25 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>0.03101110111011101</v>
+        <v>0.03095477386934674</v>
       </c>
       <c r="E4">
-        <v>0.06406240624062405</v>
+        <v>-0.06370659266481662</v>
       </c>
       <c r="F4">
-        <v>0.04825682568256826</v>
+        <v>-0.0751668791719793</v>
       </c>
       <c r="G4">
-        <v>0.06061806180618062</v>
+        <v>-0.06549013725343134</v>
       </c>
       <c r="H4">
-        <v>0.06546654665466546</v>
+        <v>-0.09006075151878798</v>
       </c>
       <c r="I4">
-        <v>0.06549054905490548</v>
+        <v>-0.06155253881347034</v>
       </c>
       <c r="J4">
-        <v>0.01461746174617462</v>
+        <v>0.0418465461636541</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -542,25 +545,25 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>0.1322172217221722</v>
+        <v>-0.01930248256206405</v>
       </c>
       <c r="E5">
-        <v>0.009756975697569756</v>
+        <v>-0.01387684692117303</v>
       </c>
       <c r="F5">
-        <v>0.0566096609660966</v>
+        <v>0.01240681017025426</v>
       </c>
       <c r="G5">
-        <v>0.007368736873687368</v>
+        <v>-0.01242781069526738</v>
       </c>
       <c r="H5">
-        <v>-0.07786378637863785</v>
+        <v>-0.059303982599565</v>
       </c>
       <c r="I5">
-        <v>0.007644764476447644</v>
+        <v>-0.01549088727218181</v>
       </c>
       <c r="J5">
-        <v>-0.0808160816081608</v>
+        <v>0.01106877671941799</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -569,25 +572,25 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>-0.05459345934593459</v>
+        <v>0.09131478286957176</v>
       </c>
       <c r="E6">
-        <v>-0.06717071707170716</v>
+        <v>0.02755718892972325</v>
       </c>
       <c r="F6">
-        <v>-0.01759375937593759</v>
+        <v>-0.01805145128628216</v>
       </c>
       <c r="G6">
-        <v>-0.06595859585958595</v>
+        <v>0.02887422185554639</v>
       </c>
       <c r="H6">
-        <v>-0.01206120612061206</v>
+        <v>0.04921473036825922</v>
       </c>
       <c r="I6">
-        <v>-0.0738073807380738</v>
+        <v>0.027875196879922</v>
       </c>
       <c r="J6">
-        <v>0.2141974197419742</v>
+        <v>-0.06420910522763071</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -596,168 +599,168 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <v>0.03695169516951695</v>
+        <v>0.1039060976524413</v>
       </c>
       <c r="E7">
-        <v>0.7617641764176417</v>
+        <v>0.09376434410860272</v>
       </c>
       <c r="F7">
-        <v>-0.03554755475547554</v>
+        <v>-0.06874371859296484</v>
       </c>
       <c r="G7">
-        <v>0.757011701170117</v>
+        <v>0.0917527938198455</v>
       </c>
       <c r="H7">
-        <v>0.9993759375937593</v>
+        <v>0.1281737043426086</v>
       </c>
       <c r="I7">
-        <v>0.7682568256825681</v>
+        <v>0.09733893347333686</v>
       </c>
       <c r="J7">
-        <v>-0.3112871287128712</v>
+        <v>-0.004464111602790071</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C8">
-        <v>0.9584278427842783</v>
+        <v>0.1116012900322508</v>
       </c>
       <c r="E8">
-        <v>0.05585358535853585</v>
+        <v>0.8013425335633392</v>
       </c>
       <c r="F8">
-        <v>0.04326432643264326</v>
+        <v>-0.01192829820745519</v>
       </c>
       <c r="G8">
-        <v>0.05467746774677467</v>
+        <v>0.7853206330158256</v>
       </c>
       <c r="H8">
-        <v>0.01578157815781578</v>
+        <v>0.999572489312233</v>
       </c>
       <c r="I8">
-        <v>0.0403000300030003</v>
+        <v>0.8048346208655217</v>
       </c>
       <c r="J8">
-        <v>0.1121152115211521</v>
+        <v>-0.3181624540613515</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>0.1387218721872187</v>
+        <v>0.9586574664366611</v>
       </c>
       <c r="E9">
-        <v>0.119039903990399</v>
+        <v>0.05897997449936249</v>
       </c>
       <c r="F9">
-        <v>-0.05066906690669067</v>
+        <v>-0.1421810545263632</v>
       </c>
       <c r="G9">
-        <v>0.1154395439543954</v>
+        <v>0.06091952298807471</v>
       </c>
       <c r="H9">
-        <v>0.1215121512151215</v>
+        <v>0.05428635715892899</v>
       </c>
       <c r="I9">
-        <v>0.1078307830783078</v>
+        <v>0.05961899047476188</v>
       </c>
       <c r="J9">
-        <v>0.01686168616861686</v>
+        <v>0.05282382059551489</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C10">
-        <v>-0.03249924992499249</v>
+        <v>0.002226055651391285</v>
       </c>
       <c r="E10">
-        <v>0.1228202820282028</v>
+        <v>-0.04114452861321533</v>
       </c>
       <c r="F10">
-        <v>0.05812181218121812</v>
+        <v>-0.08193054826370662</v>
       </c>
       <c r="G10">
-        <v>0.1216321632163216</v>
+        <v>-0.03511437785944649</v>
       </c>
       <c r="H10">
-        <v>-0.02137413741374137</v>
+        <v>-0.1103577589439736</v>
       </c>
       <c r="I10">
-        <v>0.123048304830483</v>
+        <v>-0.04569414235355885</v>
       </c>
       <c r="J10">
-        <v>-0.1335973597359736</v>
+        <v>0.07358583964599115</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C11">
-        <v>0.05375337533753375</v>
+        <v>0.05436135903397585</v>
       </c>
       <c r="E11">
-        <v>-0.152079207920792</v>
+        <v>0.08213755343883598</v>
       </c>
       <c r="F11">
-        <v>0.1324212421242124</v>
+        <v>-0.06477611940298508</v>
       </c>
       <c r="G11">
-        <v>-0.1507950795079508</v>
+        <v>0.08329258231455787</v>
       </c>
       <c r="H11">
-        <v>-0.09653765376537653</v>
+        <v>0.09383334583364585</v>
       </c>
       <c r="I11">
-        <v>-0.1527512751275127</v>
+        <v>0.08060751518787972</v>
       </c>
       <c r="J11">
-        <v>0.0911971197119712</v>
+        <v>-0.007909697742443562</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C12">
-        <v>0.1594359435943594</v>
+        <v>-0.0712247806195155</v>
       </c>
       <c r="E12">
-        <v>0.5028142814281428</v>
+        <v>-0.04415060376509413</v>
       </c>
       <c r="F12">
-        <v>-0.1287848784878488</v>
+        <v>0.007809195229880749</v>
       </c>
       <c r="G12">
-        <v>0.508130813081308</v>
+        <v>-0.04352508812720319</v>
       </c>
       <c r="H12">
-        <v>-0.1540594059405941</v>
+        <v>-0.02993024825620641</v>
       </c>
       <c r="I12">
-        <v>0.4959975997599759</v>
+        <v>-0.04644566114152855</v>
       </c>
       <c r="J12">
-        <v>-0.08205220522052205</v>
+        <v>0.0893857346433661</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -766,32 +769,59 @@
         <v>25</v>
       </c>
       <c r="C13">
-        <v>-0.2957815781578158</v>
+        <v>0.1633885847146179</v>
       </c>
       <c r="E13">
-        <v>-0.006168616861686168</v>
+        <v>0.6325253131328284</v>
       </c>
       <c r="F13">
-        <v>0.02201020102010201</v>
+        <v>0.0695537388434711</v>
       </c>
       <c r="G13">
-        <v>-0.007284728472847284</v>
+        <v>0.6503697592439812</v>
       </c>
       <c r="H13">
-        <v>0.009888988898889886</v>
+        <v>0.06890722268056702</v>
       </c>
       <c r="I13">
-        <v>-0.004776477647764776</v>
+        <v>0.6292117302932574</v>
       </c>
       <c r="J13">
-        <v>-0.04154815481548155</v>
+        <v>-0.008629715742893574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>-0.1969339233480837</v>
+      </c>
+      <c r="E14">
+        <v>0.02007800195004875</v>
+      </c>
+      <c r="F14">
+        <v>-0.01062326558163954</v>
+      </c>
+      <c r="G14">
+        <v>0.01790144753618841</v>
+      </c>
+      <c r="H14">
+        <v>0.07197179929498237</v>
+      </c>
+      <c r="I14">
+        <v>0.01989949748743719</v>
+      </c>
+      <c r="J14">
+        <v>-0.05835745893647341</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:J1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Element</t>
   </si>
@@ -28,16 +28,16 @@
     <t>MFPP [USD/ton]</t>
   </si>
   <si>
-    <t>Biodiesel production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Ethanol production [MMGal/yr]</t>
-  </si>
-  <si>
-    <t>Electricity production [MMWhr/yr]</t>
-  </si>
-  <si>
-    <t>Natural gas consumption [MMcf/yr]</t>
+    <t>Biodiesel production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption [cf/ton]</t>
   </si>
   <si>
     <t>TCI [10^6*USD]</t>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>Heat exchanger network error [%]</t>
+  </si>
+  <si>
+    <t>MFPP derivative [USD/ton]</t>
+  </si>
+  <si>
+    <t>Biodiesel production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Ethanol production derivative [Gal/ton]</t>
+  </si>
+  <si>
+    <t>Electricity production derivative [kWhr/ton]</t>
+  </si>
+  <si>
+    <t>Natural gas consumption derivative [cf/ton]</t>
+  </si>
+  <si>
+    <t>TCI derivative [10^6*USD]</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -452,13 +470,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +490,14 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -501,325 +525,343 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>0.03095477386934674</v>
+        <v>0.01597554397554398</v>
       </c>
       <c r="E4">
-        <v>-0.06370659266481662</v>
+        <v>0.03925508725508726</v>
       </c>
       <c r="F4">
-        <v>-0.0751668791719793</v>
+        <v>0.06164275855110938</v>
       </c>
       <c r="G4">
-        <v>-0.06549013725343134</v>
+        <v>0.01663760863760864</v>
       </c>
       <c r="H4">
-        <v>-0.09006075151878798</v>
+        <v>-0.02488304488304488</v>
       </c>
       <c r="I4">
-        <v>-0.06155253881347034</v>
+        <v>-0.04342405942405943</v>
       </c>
       <c r="J4">
-        <v>0.0418465461636541</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>-0.001618792735174971</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C5">
-        <v>-0.01930248256206405</v>
+        <v>0.001085005085005085</v>
       </c>
       <c r="E5">
-        <v>-0.01387684692117303</v>
+        <v>-0.04180321780321781</v>
       </c>
       <c r="F5">
-        <v>0.01240681017025426</v>
+        <v>0.008713358144587326</v>
       </c>
       <c r="G5">
-        <v>-0.01242781069526738</v>
+        <v>-0.05422920622920623</v>
       </c>
       <c r="H5">
-        <v>-0.059303982599565</v>
+        <v>0.05241000441000442</v>
       </c>
       <c r="I5">
-        <v>-0.01549088727218181</v>
+        <v>0.008772572772572774</v>
       </c>
       <c r="J5">
-        <v>0.01106877671941799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>0.02901985581450809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>0.09131478286957176</v>
+        <v>0.008707964707964708</v>
       </c>
       <c r="E6">
-        <v>0.02755718892972325</v>
+        <v>-0.006069606069606069</v>
       </c>
       <c r="F6">
-        <v>-0.01805145128628216</v>
+        <v>0.01430843874069949</v>
       </c>
       <c r="G6">
-        <v>0.02887422185554639</v>
+        <v>-0.04123062523062523</v>
       </c>
       <c r="H6">
-        <v>0.04921473036825922</v>
+        <v>0.03880425880425881</v>
       </c>
       <c r="I6">
-        <v>0.027875196879922</v>
+        <v>0.06633054633054633</v>
       </c>
       <c r="J6">
-        <v>-0.06420910522763071</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>0.05178247898027941</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>0.1039060976524413</v>
+        <v>-0.06077655677655678</v>
       </c>
       <c r="E7">
-        <v>0.09376434410860272</v>
+        <v>0.03807200607200607</v>
       </c>
       <c r="F7">
-        <v>-0.06874371859296484</v>
+        <v>-0.03259941610025973</v>
       </c>
       <c r="G7">
-        <v>0.0917527938198455</v>
+        <v>0.03423313023313024</v>
       </c>
       <c r="H7">
-        <v>0.1281737043426086</v>
+        <v>-0.04374724374724375</v>
       </c>
       <c r="I7">
-        <v>0.09733893347333686</v>
+        <v>-0.03785164985164986</v>
       </c>
       <c r="J7">
-        <v>-0.004464111602790071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>-0.04467624582056818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8">
+        <v>0.03945048345048345</v>
+      </c>
+      <c r="E8">
+        <v>-0.4110518310518311</v>
+      </c>
+      <c r="F8">
+        <v>-0.0414343281709604</v>
+      </c>
+      <c r="G8">
+        <v>-0.6652982812982814</v>
+      </c>
+      <c r="H8">
+        <v>0.9995658275658276</v>
+      </c>
+      <c r="I8">
+        <v>0.7924959484959485</v>
+      </c>
+      <c r="J8">
+        <v>0.6770168377390451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>0.9620098940098941</v>
+      </c>
+      <c r="E9">
+        <v>-0.007234903234903235</v>
+      </c>
+      <c r="F9">
+        <v>0.03365016215228946</v>
+      </c>
+      <c r="G9">
+        <v>0.01485860685860686</v>
+      </c>
+      <c r="H9">
+        <v>-0.01529179529179529</v>
+      </c>
+      <c r="I9">
+        <v>-0.01146227946227946</v>
+      </c>
+      <c r="J9">
+        <v>-0.01283069842724678</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>-0.003187875187875188</v>
+      </c>
+      <c r="E10">
+        <v>0.007603867603867605</v>
+      </c>
+      <c r="F10">
+        <v>0.008759423653080944</v>
+      </c>
+      <c r="G10">
+        <v>-0.003232611232611233</v>
+      </c>
+      <c r="H10">
+        <v>0.0315019035019035</v>
+      </c>
+      <c r="I10">
+        <v>0.04357605157605158</v>
+      </c>
+      <c r="J10">
+        <v>0.01613843192279745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>0.1116012900322508</v>
-      </c>
-      <c r="E8">
-        <v>0.8013425335633392</v>
-      </c>
-      <c r="F8">
-        <v>-0.01192829820745519</v>
-      </c>
-      <c r="G8">
-        <v>0.7853206330158256</v>
-      </c>
-      <c r="H8">
-        <v>0.999572489312233</v>
-      </c>
-      <c r="I8">
-        <v>0.8048346208655217</v>
-      </c>
-      <c r="J8">
-        <v>-0.3181624540613515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11">
+        <v>-0.05750669750669751</v>
+      </c>
+      <c r="E11">
+        <v>0.02631866631866632</v>
+      </c>
+      <c r="F11">
+        <v>-0.00689888202725608</v>
+      </c>
+      <c r="G11">
+        <v>0.009124173124173124</v>
+      </c>
+      <c r="H11">
+        <v>-0.04394207594207594</v>
+      </c>
+      <c r="I11">
+        <v>-0.05375321375321376</v>
+      </c>
+      <c r="J11">
+        <v>-0.02882174809506129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9">
-        <v>0.9586574664366611</v>
-      </c>
-      <c r="E9">
-        <v>0.05897997449936249</v>
-      </c>
-      <c r="F9">
-        <v>-0.1421810545263632</v>
-      </c>
-      <c r="G9">
-        <v>0.06091952298807471</v>
-      </c>
-      <c r="H9">
-        <v>0.05428635715892899</v>
-      </c>
-      <c r="I9">
-        <v>0.05961899047476188</v>
-      </c>
-      <c r="J9">
-        <v>0.05282382059551489</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10">
-        <v>0.002226055651391285</v>
-      </c>
-      <c r="E10">
-        <v>-0.04114452861321533</v>
-      </c>
-      <c r="F10">
-        <v>-0.08193054826370662</v>
-      </c>
-      <c r="G10">
-        <v>-0.03511437785944649</v>
-      </c>
-      <c r="H10">
-        <v>-0.1103577589439736</v>
-      </c>
-      <c r="I10">
-        <v>-0.04569414235355885</v>
-      </c>
-      <c r="J10">
-        <v>0.07358583964599115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>0.05436135903397585</v>
-      </c>
-      <c r="E11">
-        <v>0.08213755343883598</v>
-      </c>
-      <c r="F11">
-        <v>-0.06477611940298508</v>
-      </c>
-      <c r="G11">
-        <v>0.08329258231455787</v>
-      </c>
-      <c r="H11">
-        <v>0.09383334583364585</v>
-      </c>
-      <c r="I11">
-        <v>0.08060751518787972</v>
-      </c>
-      <c r="J11">
-        <v>-0.007909697742443562</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>-0.0712247806195155</v>
+        <v>0.0127945447945448</v>
       </c>
       <c r="E12">
-        <v>-0.04415060376509413</v>
+        <v>-0.01416900216900217</v>
       </c>
       <c r="F12">
-        <v>0.007809195229880749</v>
+        <v>-0.002657970004030114</v>
       </c>
       <c r="G12">
-        <v>-0.04352508812720319</v>
+        <v>0.005902517902517903</v>
       </c>
       <c r="H12">
-        <v>-0.02993024825620641</v>
+        <v>-0.01346808146808147</v>
       </c>
       <c r="I12">
-        <v>-0.04644566114152855</v>
+        <v>-0.02742773142773143</v>
       </c>
       <c r="J12">
-        <v>0.0893857346433661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>0.009080434155660731</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>0.1633885847146179</v>
+        <v>0.1127515727515728</v>
       </c>
       <c r="E13">
-        <v>0.6325253131328284</v>
+        <v>0.005614529614529615</v>
       </c>
       <c r="F13">
-        <v>0.0695537388434711</v>
+        <v>0.04336005658965859</v>
       </c>
       <c r="G13">
-        <v>0.6503697592439812</v>
+        <v>0.01883250683250683</v>
       </c>
       <c r="H13">
-        <v>0.06890722268056702</v>
+        <v>-0.01777960177960178</v>
       </c>
       <c r="I13">
-        <v>0.6292117302932574</v>
+        <v>0.5802783162783164</v>
       </c>
       <c r="J13">
-        <v>-0.008629715742893574</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>-0.02455155081280729</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.1969339233480837</v>
+        <v>-0.2385647985647986</v>
       </c>
       <c r="E14">
-        <v>0.02007800195004875</v>
+        <v>-0.01675342075342075</v>
       </c>
       <c r="F14">
-        <v>-0.01062326558163954</v>
+        <v>0.02958804987569631</v>
       </c>
       <c r="G14">
-        <v>0.01790144753618841</v>
+        <v>-0.01018845418845419</v>
       </c>
       <c r="H14">
-        <v>0.07197179929498237</v>
+        <v>-0.02511374511374512</v>
       </c>
       <c r="I14">
-        <v>0.01989949748743719</v>
+        <v>-0.02457429657429657</v>
       </c>
       <c r="J14">
-        <v>-0.05835745893647341</v>
+        <v>-0.001087807405422277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C1:J1"/>
+    <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A8"/>
     <mergeCell ref="A12:A14"/>
   </mergeCells>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -560,25 +560,25 @@
         <v>23</v>
       </c>
       <c r="C4">
-        <v>0.01597554397554398</v>
+        <v>0.0434083408340834</v>
       </c>
       <c r="E4">
-        <v>0.03925508725508726</v>
+        <v>-0.09261326132613261</v>
       </c>
       <c r="F4">
-        <v>0.06164275855110938</v>
+        <v>0.04191781626421821</v>
       </c>
       <c r="G4">
-        <v>0.01663760863760864</v>
+        <v>0.05524152415241524</v>
       </c>
       <c r="H4">
-        <v>-0.02488304488304488</v>
+        <v>-0.0683108310831083</v>
       </c>
       <c r="I4">
-        <v>-0.04342405942405943</v>
+        <v>-0.01120912091209121</v>
       </c>
       <c r="J4">
-        <v>-0.001618792735174971</v>
+        <v>-0.07935598285662938</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -587,25 +587,25 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>0.001085005085005085</v>
+        <v>-0.1497269726972697</v>
       </c>
       <c r="E5">
-        <v>-0.04180321780321781</v>
+        <v>0.0375037503750375</v>
       </c>
       <c r="F5">
-        <v>0.008713358144587326</v>
+        <v>0.0084217820368032</v>
       </c>
       <c r="G5">
-        <v>-0.05422920622920623</v>
+        <v>0.03733573357335733</v>
       </c>
       <c r="H5">
-        <v>0.05241000441000442</v>
+        <v>-0.06744674467446744</v>
       </c>
       <c r="I5">
-        <v>0.008772572772572774</v>
+        <v>-0.1615121512151215</v>
       </c>
       <c r="J5">
-        <v>0.02901985581450809</v>
+        <v>0.009259398181169021</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -614,25 +614,25 @@
         <v>25</v>
       </c>
       <c r="C6">
-        <v>0.008707964707964708</v>
+        <v>0.05123312331233122</v>
       </c>
       <c r="E6">
-        <v>-0.006069606069606069</v>
+        <v>0.05489348934893489</v>
       </c>
       <c r="F6">
-        <v>0.01430843874069949</v>
+        <v>0.1496265392016802</v>
       </c>
       <c r="G6">
-        <v>-0.04123062523062523</v>
+        <v>0.04318031803180317</v>
       </c>
       <c r="H6">
-        <v>0.03880425880425881</v>
+        <v>-0.01503750375037504</v>
       </c>
       <c r="I6">
-        <v>0.06633054633054633</v>
+        <v>-0.05526552655265525</v>
       </c>
       <c r="J6">
-        <v>0.05178247898027941</v>
+        <v>0.072851000595847</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -641,25 +641,25 @@
         <v>26</v>
       </c>
       <c r="C7">
-        <v>-0.06077655677655678</v>
+        <v>-0.005472547254725472</v>
       </c>
       <c r="E7">
-        <v>0.03807200607200607</v>
+        <v>0.01549354935493549</v>
       </c>
       <c r="F7">
-        <v>-0.03259941610025973</v>
+        <v>-0.003166699242363602</v>
       </c>
       <c r="G7">
-        <v>0.03423313023313024</v>
+        <v>-0.003036303630363036</v>
       </c>
       <c r="H7">
-        <v>-0.04374724374724375</v>
+        <v>0.005880588058805879</v>
       </c>
       <c r="I7">
-        <v>-0.03785164985164986</v>
+        <v>0.004116411641164116</v>
       </c>
       <c r="J7">
-        <v>-0.04467624582056818</v>
+        <v>0.005556839089930339</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -668,25 +668,25 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.03945048345048345</v>
+        <v>0.06094209420942093</v>
       </c>
       <c r="E8">
-        <v>-0.4110518310518311</v>
+        <v>-0.2776117611761176</v>
       </c>
       <c r="F8">
-        <v>-0.0414343281709604</v>
+        <v>-0.049766316541628</v>
       </c>
       <c r="G8">
-        <v>-0.6652982812982814</v>
+        <v>-0.9696969696969697</v>
       </c>
       <c r="H8">
-        <v>0.9995658275658276</v>
+        <v>0.9999759975997599</v>
       </c>
       <c r="I8">
-        <v>0.7924959484959485</v>
+        <v>0.7969636963696368</v>
       </c>
       <c r="J8">
-        <v>0.6770168377390451</v>
+        <v>-0.3627127701000643</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -697,25 +697,25 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>0.9620098940098941</v>
+        <v>0.9541554155415541</v>
       </c>
       <c r="E9">
-        <v>-0.007234903234903235</v>
+        <v>0.06687068706870687</v>
       </c>
       <c r="F9">
-        <v>0.03365016215228946</v>
+        <v>-0.1074357316234651</v>
       </c>
       <c r="G9">
-        <v>0.01485860685860686</v>
+        <v>0.01765376537653765</v>
       </c>
       <c r="H9">
-        <v>-0.01529179529179529</v>
+        <v>0.000216021602160216</v>
       </c>
       <c r="I9">
-        <v>-0.01146227946227946</v>
+        <v>0.1024542454245424</v>
       </c>
       <c r="J9">
-        <v>-0.01283069842724678</v>
+        <v>0.05451823232399259</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -726,25 +726,25 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>-0.003187875187875188</v>
+        <v>-0.09206120612061205</v>
       </c>
       <c r="E10">
-        <v>0.007603867603867605</v>
+        <v>-0.0808160816081608</v>
       </c>
       <c r="F10">
-        <v>0.008759423653080944</v>
+        <v>0.02993349757975595</v>
       </c>
       <c r="G10">
-        <v>-0.003232611232611233</v>
+        <v>-0.09492949294929492</v>
       </c>
       <c r="H10">
-        <v>0.0315019035019035</v>
+        <v>0.0553135313531353</v>
       </c>
       <c r="I10">
-        <v>0.04357605157605158</v>
+        <v>-0.05666966696669666</v>
       </c>
       <c r="J10">
-        <v>0.01613843192279745</v>
+        <v>-0.094544276308696</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -755,25 +755,25 @@
         <v>29</v>
       </c>
       <c r="C11">
-        <v>-0.05750669750669751</v>
+        <v>-0.05981398139813981</v>
       </c>
       <c r="E11">
-        <v>0.02631866631866632</v>
+        <v>0.1422622262226222</v>
       </c>
       <c r="F11">
-        <v>-0.00689888202725608</v>
+        <v>0.1059206298307826</v>
       </c>
       <c r="G11">
-        <v>0.009124173124173124</v>
+        <v>0.2047644764476447</v>
       </c>
       <c r="H11">
-        <v>-0.04394207594207594</v>
+        <v>-0.2059165916591659</v>
       </c>
       <c r="I11">
-        <v>-0.05375321375321376</v>
+        <v>-0.1155475547554755</v>
       </c>
       <c r="J11">
-        <v>-0.02882174809506129</v>
+        <v>0.1220404282634053</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -784,25 +784,25 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <v>0.0127945447945448</v>
+        <v>-0.04018001800180018</v>
       </c>
       <c r="E12">
-        <v>-0.01416900216900217</v>
+        <v>-0.1270927092709271</v>
       </c>
       <c r="F12">
-        <v>-0.002657970004030114</v>
+        <v>-0.1035592549647097</v>
       </c>
       <c r="G12">
-        <v>0.005902517902517903</v>
+        <v>0.05556555655565556</v>
       </c>
       <c r="H12">
-        <v>-0.01346808146808147</v>
+        <v>-0.09106510651065104</v>
       </c>
       <c r="I12">
-        <v>-0.02742773142773143</v>
+        <v>-0.1073267326732673</v>
       </c>
       <c r="J12">
-        <v>0.009080434155660731</v>
+        <v>-0.1254549438597016</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -811,25 +811,25 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>0.1127515727515728</v>
+        <v>0.3081068106810681</v>
       </c>
       <c r="E13">
-        <v>0.005614529614529615</v>
+        <v>0.1323612361236123</v>
       </c>
       <c r="F13">
-        <v>0.04336005658965859</v>
+        <v>-0.03936534747834754</v>
       </c>
       <c r="G13">
-        <v>0.01883250683250683</v>
+        <v>0.03152715271527153</v>
       </c>
       <c r="H13">
-        <v>-0.01777960177960178</v>
+        <v>-0.02793879387938793</v>
       </c>
       <c r="I13">
-        <v>0.5802783162783164</v>
+        <v>0.564128412841284</v>
       </c>
       <c r="J13">
-        <v>-0.02455155081280729</v>
+        <v>0.1066120985655534</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -838,25 +838,25 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>-0.2385647985647986</v>
+        <v>-0.1578277827782778</v>
       </c>
       <c r="E14">
-        <v>-0.01675342075342075</v>
+        <v>-0.1305250525052505</v>
       </c>
       <c r="F14">
-        <v>0.02958804987569631</v>
+        <v>0.0776250801350078</v>
       </c>
       <c r="G14">
-        <v>-0.01018845418845419</v>
+        <v>-0.03956795679567957</v>
       </c>
       <c r="H14">
-        <v>-0.02511374511374512</v>
+        <v>0.03041104110411041</v>
       </c>
       <c r="I14">
-        <v>-0.02457429657429657</v>
+        <v>-0.05876987698769877</v>
       </c>
       <c r="J14">
-        <v>-0.001087807405422277</v>
+        <v>-0.1158114876852761</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -599,25 +599,25 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-0.01976959183078367</v>
+        <v>-0.01798179105527164</v>
       </c>
       <c r="E4">
-        <v>0.008732415421296616</v>
+        <v>0.005160549134421965</v>
       </c>
       <c r="F4">
-        <v>-0.01504526603552623</v>
+        <v>-0.02386443890417379</v>
       </c>
       <c r="G4">
-        <v>0.002078007059120282</v>
+        <v>0.001578179003284269</v>
       </c>
       <c r="H4">
-        <v>-0.02203852820954113</v>
+        <v>-0.0223589975343599</v>
       </c>
       <c r="I4">
         <v>-0.01894716392588655</v>
       </c>
       <c r="J4">
-        <v>0.01654602641161604</v>
+        <v>0.02126898396478375</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -626,25 +626,25 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.009888792395551694</v>
+        <v>-0.01106302834652113</v>
       </c>
       <c r="E5">
-        <v>-0.01230142801205712</v>
+        <v>-0.009485558395422335</v>
       </c>
       <c r="F5">
-        <v>-0.01360583263741611</v>
+        <v>0.006785291079105995</v>
       </c>
       <c r="G5">
-        <v>-0.01052370685294827</v>
+        <v>-0.01082770528304635</v>
       </c>
       <c r="H5">
-        <v>0.002303885180155407</v>
+        <v>0.002320268732810749</v>
       </c>
       <c r="I5">
         <v>-0.00162593900903756</v>
       </c>
       <c r="J5">
-        <v>-0.00794001701530557</v>
+        <v>-0.005967774471864777</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -653,25 +653,25 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.005207304208292168</v>
+        <v>0.007031711417268455</v>
       </c>
       <c r="E6">
-        <v>0.01601041532841661</v>
+        <v>0.0148930026437201</v>
       </c>
       <c r="F6">
-        <v>0.01001032142865004</v>
+        <v>-0.009373819390042906</v>
       </c>
       <c r="G6">
-        <v>0.009936924685476986</v>
+        <v>0.01225754969378855</v>
       </c>
       <c r="H6">
-        <v>-8.154038726161548E-05</v>
+        <v>-0.000450969426038777</v>
       </c>
       <c r="I6">
         <v>-0.002647487913899516</v>
       </c>
       <c r="J6">
-        <v>0.009498139782029617</v>
+        <v>0.007038569989143918</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -680,25 +680,25 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.00370523774820951</v>
+        <v>0.005506116700244667</v>
       </c>
       <c r="E7">
-        <v>0.008221344136853763</v>
+        <v>0.01349561823582473</v>
       </c>
       <c r="F7">
-        <v>-0.01532177130763855</v>
+        <v>-0.01745631069777724</v>
       </c>
       <c r="G7">
-        <v>0.01110574172422967</v>
+        <v>0.01432388033987983</v>
       </c>
       <c r="H7">
-        <v>0.009057254762290188</v>
+        <v>0.009293185619727423</v>
       </c>
       <c r="I7">
         <v>-0.0005958812398352496</v>
       </c>
       <c r="J7">
-        <v>-0.00797092172213644</v>
+        <v>-0.01252709355526019</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -707,25 +707,25 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1279364293734571</v>
+        <v>0.1342772724430909</v>
       </c>
       <c r="E8">
-        <v>-0.001546822909872916</v>
+        <v>-0.004020204544808181</v>
       </c>
       <c r="F8">
-        <v>0.01891773561509222</v>
+        <v>-0.01448560028589361</v>
       </c>
       <c r="G8">
-        <v>0.09129935597197422</v>
+        <v>0.03273622001799333</v>
       </c>
       <c r="H8">
-        <v>0.982544076709763</v>
+        <v>0.9813343973653758</v>
       </c>
       <c r="I8">
         <v>0.9576457947858317</v>
       </c>
       <c r="J8">
-        <v>0.0227288119379592</v>
+        <v>0.02624062375787324</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -736,25 +736,25 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.9294211704248467</v>
+        <v>0.8964337104493483</v>
       </c>
       <c r="E9">
-        <v>0.004951953222078129</v>
+        <v>-0.001432954713318188</v>
       </c>
       <c r="F9">
-        <v>0.00243340687988327</v>
+        <v>0.0169336941335962</v>
       </c>
       <c r="G9">
-        <v>-0.003092342331693693</v>
+        <v>-0.004313662558559949</v>
       </c>
       <c r="H9">
-        <v>-0.02691853605274144</v>
+        <v>-0.02623842402553696</v>
       </c>
       <c r="I9">
         <v>-0.02565199811407992</v>
       </c>
       <c r="J9">
-        <v>0.01684611039110374</v>
+        <v>0.01603132358852068</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -765,25 +765,25 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>0.002704283916171356</v>
+        <v>0.002468269922730797</v>
       </c>
       <c r="E10">
-        <v>-0.004155826342233053</v>
+        <v>0.003120776380831055</v>
       </c>
       <c r="F10">
-        <v>-0.00952003864758566</v>
+        <v>0.0152220414021744</v>
       </c>
       <c r="G10">
-        <v>0.001274443826977753</v>
+        <v>0.004249022228445377</v>
       </c>
       <c r="H10">
-        <v>0.01146987521079501</v>
+        <v>0.01138591111143644</v>
       </c>
       <c r="I10">
         <v>0.007491558251662329</v>
       </c>
       <c r="J10">
-        <v>-0.01346192489711234</v>
+        <v>-0.01661510295137487</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -794,25 +794,25 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>-0.01764894291395771</v>
+        <v>-0.01047466899498676</v>
       </c>
       <c r="E11">
-        <v>0.007564065902562635</v>
+        <v>0.006106887604275503</v>
       </c>
       <c r="F11">
-        <v>-0.009141299105520024</v>
+        <v>-0.03207363535907387</v>
       </c>
       <c r="G11">
-        <v>0.005247843953913757</v>
+        <v>0.005632428338994987</v>
       </c>
       <c r="H11">
-        <v>0.006929649589185983</v>
+        <v>0.005886990667479626</v>
       </c>
       <c r="I11">
         <v>0.008194044615761783</v>
       </c>
       <c r="J11">
-        <v>0.01254237378888145</v>
+        <v>0.0102611957578733</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -823,25 +823,25 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>0.02836303678252147</v>
+        <v>0.02772284827691392</v>
       </c>
       <c r="E12">
-        <v>0.004957147302285892</v>
+        <v>0.002944478133779125</v>
       </c>
       <c r="F12">
-        <v>0.005324487305692445</v>
+        <v>0.02263184724506173</v>
       </c>
       <c r="G12">
-        <v>0.004696563931862557</v>
+        <v>0.002932572791201252</v>
       </c>
       <c r="H12">
-        <v>0.02213934626157385</v>
+        <v>0.02328066179522647</v>
       </c>
       <c r="I12">
         <v>0.02000939523237581</v>
       </c>
       <c r="J12">
-        <v>0.002943052877583647</v>
+        <v>0.001637941198684335</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -850,25 +850,25 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>0.1221121577164863</v>
+        <v>0.12611549947662</v>
       </c>
       <c r="E13">
-        <v>-0.0003146031485841259</v>
+        <v>-0.004301068300042731</v>
       </c>
       <c r="F13">
-        <v>0.02647879438112347</v>
+        <v>0.02048141754801347</v>
       </c>
       <c r="G13">
-        <v>-0.005782649799305991</v>
+        <v>-0.004642110784083099</v>
       </c>
       <c r="H13">
-        <v>-0.01182595813703832</v>
+        <v>-0.01053524614940984</v>
       </c>
       <c r="I13">
         <v>0.267955776926231</v>
       </c>
       <c r="J13">
-        <v>0.008980848726645755</v>
+        <v>0.007485079228040229</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -877,25 +877,25 @@
         <v>38</v>
       </c>
       <c r="C14">
-        <v>-0.2359103887964155</v>
+        <v>-0.2465823403912936</v>
       </c>
       <c r="E14">
-        <v>-0.001119900812796032</v>
+        <v>0.002288491291539651</v>
       </c>
       <c r="F14">
-        <v>0.007101257300169148</v>
+        <v>0.002171666356666391</v>
       </c>
       <c r="G14">
-        <v>0.001868477066739082</v>
+        <v>0.005108081380638472</v>
       </c>
       <c r="H14">
-        <v>0.01949199053967962</v>
+        <v>0.0198947200597888</v>
       </c>
       <c r="I14">
         <v>0.02607368293094731</v>
       </c>
       <c r="J14">
-        <v>0.003495742352210004</v>
+        <v>0.004590071247850292</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -906,25 +906,25 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.0113985226319409</v>
+        <v>-0.008826659681066388</v>
       </c>
       <c r="E15">
-        <v>0.009384399447375978</v>
+        <v>0.01296163837446553</v>
       </c>
       <c r="F15">
-        <v>-0.01525094057824348</v>
+        <v>-0.003274600101679226</v>
       </c>
       <c r="G15">
-        <v>0.01239277604771104</v>
+        <v>0.01531801402402811</v>
       </c>
       <c r="H15">
-        <v>0.002353352158134086</v>
+        <v>0.001885959531438381</v>
       </c>
       <c r="I15">
         <v>0.004215266088610644</v>
       </c>
       <c r="J15">
-        <v>-0.00147008360665966</v>
+        <v>-0.006405788910021091</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -935,25 +935,25 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <v>-0.004577713335108533</v>
+        <v>-0.004024131712965268</v>
       </c>
       <c r="E16">
-        <v>-0.001537251613490064</v>
+        <v>0.0008933295717331827</v>
       </c>
       <c r="F16">
-        <v>-0.02056558362142964</v>
+        <v>-0.004246382409524718</v>
       </c>
       <c r="G16">
-        <v>0.001737818277512731</v>
+        <v>0.003010070834387564</v>
       </c>
       <c r="H16">
-        <v>0.02941339980053599</v>
+        <v>0.0296087301443492</v>
       </c>
       <c r="I16">
         <v>0.02145504949820198</v>
       </c>
       <c r="J16">
-        <v>-0.0006908581592826083</v>
+        <v>0.0007497689453138731</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -964,25 +964,25 @@
         <v>39</v>
       </c>
       <c r="C17">
-        <v>-0.04586360218654408</v>
+        <v>-0.048725425181017</v>
       </c>
       <c r="E17">
-        <v>-0.004446810417872416</v>
+        <v>-0.002810390512415621</v>
       </c>
       <c r="F17">
-        <v>-0.006771216928337822</v>
+        <v>0.01409004364871957</v>
       </c>
       <c r="G17">
-        <v>0.004187156135486246</v>
+        <v>0.0006606162849821532</v>
       </c>
       <c r="H17">
-        <v>0.0433416850616674</v>
+        <v>0.04396874614274984</v>
       </c>
       <c r="I17">
         <v>0.04796831395073255</v>
       </c>
       <c r="J17">
-        <v>-0.01424049303242918</v>
+        <v>-0.009740566160520209</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -991,25 +991,25 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>0.02726230054649202</v>
+        <v>0.02792097884483915</v>
       </c>
       <c r="E18">
-        <v>-0.0114631374505255</v>
+        <v>-0.004499464595978583</v>
       </c>
       <c r="F18">
-        <v>0.01206574578032939</v>
+        <v>-0.006131906291504051</v>
       </c>
       <c r="G18">
-        <v>-0.005547942941917718</v>
+        <v>-0.003576837198683347</v>
       </c>
       <c r="H18">
-        <v>0.01302860394514416</v>
+        <v>0.01272460380498415</v>
       </c>
       <c r="I18">
         <v>0.01683920947356838</v>
       </c>
       <c r="J18">
-        <v>-0.005094770674681001</v>
+        <v>-0.008668692563147156</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1020,25 +1020,25 @@
         <v>41</v>
       </c>
       <c r="C19">
-        <v>-0.03886969710678788</v>
+        <v>-0.03826341205853648</v>
       </c>
       <c r="E19">
-        <v>0.0299755900310236</v>
+        <v>0.02979383543175341</v>
       </c>
       <c r="F19">
-        <v>0.01006466820175497</v>
+        <v>-0.009478236714754519</v>
       </c>
       <c r="G19">
-        <v>0.03101795029671801</v>
+        <v>0.02986501708496668</v>
       </c>
       <c r="H19">
-        <v>0.1818777902191116</v>
+        <v>0.1837101185804047</v>
       </c>
       <c r="I19">
         <v>0.004456985650279426</v>
       </c>
       <c r="J19">
-        <v>-0.0008660206393274918</v>
+        <v>-0.007989728808001265</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1049,25 +1049,25 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>0.03338224059928962</v>
+        <v>0.02801329542453181</v>
       </c>
       <c r="E20">
-        <v>0.2430269445370778</v>
+        <v>0.08769243182769726</v>
       </c>
       <c r="F20">
-        <v>0.007612872193480881</v>
+        <v>-0.05834240862810071</v>
       </c>
       <c r="G20">
-        <v>0.2279253384930135</v>
+        <v>0.07082976128448275</v>
       </c>
       <c r="H20">
-        <v>0.01164920552196822</v>
+        <v>0.006318580860743234</v>
       </c>
       <c r="I20">
         <v>-0.001009648360385934</v>
       </c>
       <c r="J20">
-        <v>-0.1475796009902917</v>
+        <v>-0.1330662151916643</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1076,25 +1076,25 @@
         <v>43</v>
       </c>
       <c r="C21">
-        <v>0.08294493067779722</v>
+        <v>0.08081246310449851</v>
       </c>
       <c r="E21">
-        <v>0.3943033327001332</v>
+        <v>0.1795254716930189</v>
       </c>
       <c r="F21">
-        <v>-0.002453126330679284</v>
+        <v>-0.07960561263419985</v>
       </c>
       <c r="G21">
-        <v>0.09093936805357472</v>
+        <v>0.06182039731663768</v>
       </c>
       <c r="H21">
-        <v>0.008515187188607486</v>
+        <v>0.004741184349647373</v>
       </c>
       <c r="I21">
         <v>0.02411104560444182</v>
       </c>
       <c r="J21">
-        <v>0.9539925851777221</v>
+        <v>0.8321278226483197</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1105,25 +1105,25 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>0.009117466732698669</v>
+        <v>0.007189525823581033</v>
       </c>
       <c r="E22">
-        <v>-0.008942536293701451</v>
+        <v>-0.007805346360213854</v>
       </c>
       <c r="F22">
-        <v>0.003291286468576441</v>
+        <v>0.01395864660998103</v>
       </c>
       <c r="G22">
-        <v>-0.006491425411657016</v>
+        <v>-0.006763553251093121</v>
       </c>
       <c r="H22">
-        <v>-0.005368539862741594</v>
+        <v>-0.004850024930000997</v>
       </c>
       <c r="I22">
         <v>-0.0009385170615406823</v>
       </c>
       <c r="J22">
-        <v>-0.004893953824286176</v>
+        <v>0.002219878705378076</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1132,25 +1132,25 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>0.07708957037958281</v>
+        <v>0.2218501120740045</v>
       </c>
       <c r="E23">
-        <v>0.874035776177431</v>
+        <v>0.9773427223897089</v>
       </c>
       <c r="F23">
-        <v>0.01099870433017652</v>
+        <v>-0.5069012008646936</v>
       </c>
       <c r="G23">
-        <v>0.9557478213339128</v>
+        <v>0.9866337280407811</v>
       </c>
       <c r="H23">
-        <v>0.01278572556742902</v>
+        <v>0.005140930957637237</v>
       </c>
       <c r="I23">
         <v>-0.01020257877610315</v>
       </c>
       <c r="J23">
-        <v>-0.1562290982465856</v>
+        <v>-0.4745207522004523</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Element</t>
   </si>
@@ -118,6 +118,21 @@
     <t>Capacity [ton/hr]</t>
   </si>
   <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>TAG to  FFA conversion [% lipid]</t>
+  </si>
+  <si>
     <t>Price [USD/gal]</t>
   </si>
   <si>
@@ -142,10 +157,16 @@
     <t>Base cost [million USD]</t>
   </si>
   <si>
-    <t>Glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose yield [%]</t>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
   </si>
   <si>
     <t>Glucose to ethanol yield [%]</t>
@@ -509,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -599,25 +620,25 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-0.01798179105527164</v>
+        <v>-0.04703213903213904</v>
       </c>
       <c r="E4">
-        <v>0.005160549134421965</v>
+        <v>0.01016948216948217</v>
       </c>
       <c r="F4">
-        <v>-0.02386443890417379</v>
+        <v>-0.01145142399657209</v>
       </c>
       <c r="G4">
-        <v>0.001578179003284269</v>
+        <v>0.02360804134723949</v>
       </c>
       <c r="H4">
-        <v>-0.0223589975343599</v>
+        <v>0.01620804420804421</v>
       </c>
       <c r="I4">
-        <v>-0.01894716392588655</v>
+        <v>0.03146466746466747</v>
       </c>
       <c r="J4">
-        <v>0.02126898396478375</v>
+        <v>-0.0001042441064332327</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -626,25 +647,25 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.01106302834652113</v>
+        <v>-0.02304263904263905</v>
       </c>
       <c r="E5">
-        <v>-0.009485558395422335</v>
+        <v>-0.005490089490089491</v>
       </c>
       <c r="F5">
-        <v>0.006785291079105995</v>
+        <v>0.004565473435166847</v>
       </c>
       <c r="G5">
-        <v>-0.01082770528304635</v>
+        <v>0.001087860156901935</v>
       </c>
       <c r="H5">
-        <v>0.002320268732810749</v>
+        <v>0.006687222687222688</v>
       </c>
       <c r="I5">
-        <v>-0.00162593900903756</v>
+        <v>-0.006816534816534816</v>
       </c>
       <c r="J5">
-        <v>-0.005967774471864777</v>
+        <v>-0.04425021317946767</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -653,25 +674,25 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.007031711417268455</v>
+        <v>0.05571885171885172</v>
       </c>
       <c r="E6">
-        <v>0.0148930026437201</v>
+        <v>0.01559155559155559</v>
       </c>
       <c r="F6">
-        <v>-0.009373819390042906</v>
+        <v>-0.016095642284392</v>
       </c>
       <c r="G6">
-        <v>0.01225754969378855</v>
+        <v>0.01980965812798121</v>
       </c>
       <c r="H6">
-        <v>-0.000450969426038777</v>
+        <v>0.01680929280929281</v>
       </c>
       <c r="I6">
-        <v>-0.002647487913899516</v>
+        <v>0.03009468609468609</v>
       </c>
       <c r="J6">
-        <v>0.007038569989143918</v>
+        <v>-0.01477518308546193</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -680,25 +701,25 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0.005506116700244667</v>
+        <v>-0.03359090159090159</v>
       </c>
       <c r="E7">
-        <v>0.01349561823582473</v>
+        <v>0.0425023865023865</v>
       </c>
       <c r="F7">
-        <v>-0.01745631069777724</v>
+        <v>-0.03901416244723518</v>
       </c>
       <c r="G7">
-        <v>0.01432388033987983</v>
+        <v>0.002211816560156173</v>
       </c>
       <c r="H7">
-        <v>0.009293185619727423</v>
+        <v>-0.06901122901122901</v>
       </c>
       <c r="I7">
-        <v>-0.0005958812398352496</v>
+        <v>-0.04742785142785143</v>
       </c>
       <c r="J7">
-        <v>-0.01252709355526019</v>
+        <v>-0.0002537462590749306</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -707,423 +728,417 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1342772724430909</v>
+        <v>0.2106182466182466</v>
       </c>
       <c r="E8">
-        <v>-0.004020204544808181</v>
+        <v>0.01943291543291543</v>
       </c>
       <c r="F8">
-        <v>-0.01448560028589361</v>
+        <v>-0.03446298116682447</v>
       </c>
       <c r="G8">
-        <v>0.03273622001799333</v>
+        <v>0.01421701184620375</v>
       </c>
       <c r="H8">
-        <v>0.9813343973653758</v>
+        <v>0.9543772503772505</v>
       </c>
       <c r="I8">
-        <v>0.9576457947858317</v>
+        <v>0.9574888414888415</v>
       </c>
       <c r="J8">
-        <v>0.02624062375787324</v>
+        <v>0.3399375230762112</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.8964337104493483</v>
+        <v>0.00304890304890305</v>
       </c>
       <c r="E9">
-        <v>-0.001432954713318188</v>
+        <v>-0.04782308382308383</v>
       </c>
       <c r="F9">
-        <v>0.0169336941335962</v>
+        <v>0.04643195876749199</v>
       </c>
       <c r="G9">
-        <v>-0.004313662558559949</v>
+        <v>-0.01306056564374596</v>
       </c>
       <c r="H9">
-        <v>-0.02623842402553696</v>
+        <v>0.03825565425565426</v>
       </c>
       <c r="I9">
-        <v>-0.02565199811407992</v>
+        <v>0.02799237999237999</v>
       </c>
       <c r="J9">
-        <v>0.01603132358852068</v>
+        <v>0.02984029846694475</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
-        <v>0.002468269922730797</v>
+        <v>-0.02317629517629518</v>
       </c>
       <c r="E10">
-        <v>0.003120776380831055</v>
+        <v>-0.02053244053244054</v>
       </c>
       <c r="F10">
-        <v>0.0152220414021744</v>
+        <v>0.02156204947491306</v>
       </c>
       <c r="G10">
-        <v>0.004249022228445377</v>
+        <v>-0.021449272923778</v>
       </c>
       <c r="H10">
-        <v>0.01138591111143644</v>
+        <v>-0.06567557367557368</v>
       </c>
       <c r="I10">
-        <v>0.007491558251662329</v>
+        <v>-0.09330344130344131</v>
       </c>
       <c r="J10">
-        <v>-0.01661510295137487</v>
+        <v>-0.04814592115698551</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.01047466899498676</v>
+        <v>-0.0420936180936181</v>
       </c>
       <c r="E11">
-        <v>0.006106887604275503</v>
+        <v>-0.002603918603918604</v>
       </c>
       <c r="F11">
-        <v>-0.03207363535907387</v>
+        <v>0.002781678120145027</v>
       </c>
       <c r="G11">
-        <v>0.005632428338994987</v>
+        <v>0.01225653446619433</v>
       </c>
       <c r="H11">
-        <v>0.005886990667479626</v>
+        <v>-0.01190966390966391</v>
       </c>
       <c r="I11">
-        <v>0.008194044615761783</v>
+        <v>-0.015003147003147</v>
       </c>
       <c r="J11">
-        <v>0.0102611957578733</v>
+        <v>-0.002041760084637047</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C12">
-        <v>0.02772284827691392</v>
+        <v>-0.02581783381783382</v>
       </c>
       <c r="E12">
-        <v>0.002944478133779125</v>
+        <v>0.02066982866982867</v>
       </c>
       <c r="F12">
-        <v>0.02263184724506173</v>
+        <v>-0.01840437128342111</v>
       </c>
       <c r="G12">
-        <v>0.002932572791201252</v>
+        <v>0.0319394267712684</v>
       </c>
       <c r="H12">
-        <v>0.02328066179522647</v>
+        <v>-0.06216102216102216</v>
       </c>
       <c r="I12">
-        <v>0.02000939523237581</v>
+        <v>-0.03115366315366316</v>
       </c>
       <c r="J12">
-        <v>0.001637941198684335</v>
+        <v>0.0003074823139394426</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13">
-        <v>0.12611549947662</v>
+        <v>0.01881061881061881</v>
       </c>
       <c r="E13">
-        <v>-0.004301068300042731</v>
+        <v>0.005824253824253825</v>
       </c>
       <c r="F13">
-        <v>0.02048141754801347</v>
+        <v>-0.006798061609739425</v>
       </c>
       <c r="G13">
-        <v>-0.004642110784083099</v>
+        <v>-0.005127684685938349</v>
       </c>
       <c r="H13">
-        <v>-0.01053524614940984</v>
+        <v>0.01975061575061575</v>
       </c>
       <c r="I13">
-        <v>0.267955776926231</v>
+        <v>0.01915155115155116</v>
       </c>
       <c r="J13">
-        <v>0.007485079228040229</v>
+        <v>0.01417434847200979</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.2465823403912936</v>
+        <v>0.8818297858297859</v>
       </c>
       <c r="E14">
-        <v>0.002288491291539651</v>
+        <v>-0.01078436278436279</v>
       </c>
       <c r="F14">
-        <v>0.002171666356666391</v>
+        <v>0.009352841273017004</v>
       </c>
       <c r="G14">
-        <v>0.005108081380638472</v>
+        <v>0.007179816663309756</v>
       </c>
       <c r="H14">
-        <v>0.0198947200597888</v>
+        <v>0.0004707124707124707</v>
       </c>
       <c r="I14">
-        <v>0.02607368293094731</v>
+        <v>0.000481968481968482</v>
       </c>
       <c r="J14">
-        <v>0.004590071247850292</v>
+        <v>-0.007685815847217982</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.008826659681066388</v>
+        <v>-0.01524158724158724</v>
       </c>
       <c r="E15">
-        <v>0.01296163837446553</v>
+        <v>0.01059179859179859</v>
       </c>
       <c r="F15">
-        <v>-0.003274600101679226</v>
+        <v>-0.01033484790623225</v>
       </c>
       <c r="G15">
-        <v>0.01531801402402811</v>
+        <v>-0.06775513284272172</v>
       </c>
       <c r="H15">
-        <v>0.001885959531438381</v>
+        <v>-0.05774218574218575</v>
       </c>
       <c r="I15">
-        <v>0.004215266088610644</v>
+        <v>-0.06471343671343671</v>
       </c>
       <c r="J15">
-        <v>-0.006405788910021091</v>
+        <v>0.003100905166024175</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.004024131712965268</v>
+        <v>-0.04805728805728806</v>
       </c>
       <c r="E16">
-        <v>0.0008933295717331827</v>
+        <v>-0.02131551331551331</v>
       </c>
       <c r="F16">
-        <v>-0.004246382409524718</v>
+        <v>0.02293118029992776</v>
       </c>
       <c r="G16">
-        <v>0.003010070834387564</v>
+        <v>-0.006237739585865887</v>
       </c>
       <c r="H16">
-        <v>0.0296087301443492</v>
+        <v>0.00256975456975457</v>
       </c>
       <c r="I16">
-        <v>0.02145504949820198</v>
+        <v>-0.01223472023472024</v>
       </c>
       <c r="J16">
-        <v>0.0007497689453138731</v>
+        <v>0.01437434667620796</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>-0.048725425181017</v>
+        <v>0.00450947250947251</v>
       </c>
       <c r="E17">
-        <v>-0.002810390512415621</v>
+        <v>0.03182802782802783</v>
       </c>
       <c r="F17">
-        <v>0.01409004364871957</v>
+        <v>-0.03540837540359893</v>
       </c>
       <c r="G17">
-        <v>0.0006606162849821532</v>
+        <v>0.01476152181593634</v>
       </c>
       <c r="H17">
-        <v>0.04396874614274984</v>
+        <v>0.001267045267045267</v>
       </c>
       <c r="I17">
-        <v>0.04796831395073255</v>
+        <v>0.002827226827226827</v>
       </c>
       <c r="J17">
-        <v>-0.009740566160520209</v>
+        <v>-0.04204327292618167</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0.02792097884483915</v>
+        <v>0.1153882873882874</v>
       </c>
       <c r="E18">
-        <v>-0.004499464595978583</v>
+        <v>-0.0005503565503565504</v>
       </c>
       <c r="F18">
-        <v>-0.006131906291504051</v>
+        <v>0.001516540421172923</v>
       </c>
       <c r="G18">
-        <v>-0.003576837198683347</v>
+        <v>-0.005653288611146632</v>
       </c>
       <c r="H18">
-        <v>0.01272460380498415</v>
+        <v>-0.01997374397374398</v>
       </c>
       <c r="I18">
-        <v>0.01683920947356838</v>
+        <v>0.2669475509475509</v>
       </c>
       <c r="J18">
-        <v>-0.008668692563147156</v>
+        <v>-0.01851000689871705</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.03826341205853648</v>
+        <v>-0.2185543225543226</v>
       </c>
       <c r="E19">
-        <v>0.02979383543175341</v>
+        <v>0.01122652722652723</v>
       </c>
       <c r="F19">
-        <v>-0.009478236714754519</v>
+        <v>-0.01022690673744007</v>
       </c>
       <c r="G19">
-        <v>0.02986501708496668</v>
+        <v>0.01379729765776399</v>
       </c>
       <c r="H19">
-        <v>0.1837101185804047</v>
+        <v>-0.01147226347226347</v>
       </c>
       <c r="I19">
-        <v>0.004456985650279426</v>
+        <v>-0.01395296595296595</v>
       </c>
       <c r="J19">
-        <v>-0.007989728808001265</v>
+        <v>0.02567220221131846</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>0.02801329542453181</v>
+        <v>0.03611670011670012</v>
       </c>
       <c r="E20">
-        <v>0.08769243182769726</v>
+        <v>0.04249863049863051</v>
       </c>
       <c r="F20">
-        <v>-0.05834240862810071</v>
+        <v>-0.04262674156441634</v>
       </c>
       <c r="G20">
-        <v>0.07082976128448275</v>
+        <v>0.01424924744648932</v>
       </c>
       <c r="H20">
-        <v>0.006318580860743234</v>
+        <v>0.01134749934749935</v>
       </c>
       <c r="I20">
-        <v>-0.001009648360385934</v>
+        <v>0.007792087792087793</v>
       </c>
       <c r="J20">
-        <v>-0.1330662151916643</v>
+        <v>0.02148346593461873</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>0.08081246310449851</v>
+        <v>-0.01636931236931237</v>
       </c>
       <c r="E21">
-        <v>0.1795254716930189</v>
+        <v>0.0008373848373848374</v>
       </c>
       <c r="F21">
-        <v>-0.07960561263419985</v>
+        <v>-0.001937480979137614</v>
       </c>
       <c r="G21">
-        <v>0.06182039731663768</v>
+        <v>0.0201487435971261</v>
       </c>
       <c r="H21">
-        <v>0.004741184349647373</v>
+        <v>-0.001198753198753199</v>
       </c>
       <c r="I21">
-        <v>0.02411104560444182</v>
+        <v>0.007805047805047806</v>
       </c>
       <c r="J21">
-        <v>0.8321278226483197</v>
+        <v>-0.001158037182355963</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C22">
-        <v>0.007189525823581033</v>
+        <v>-0.09787233787233787</v>
       </c>
       <c r="E22">
-        <v>-0.007805346360213854</v>
+        <v>-0.03102611502611503</v>
       </c>
       <c r="F22">
-        <v>0.01395864660998103</v>
+        <v>0.03108232856095479</v>
       </c>
       <c r="G22">
-        <v>-0.006763553251093121</v>
+        <v>-0.0147190070469052</v>
       </c>
       <c r="H22">
-        <v>-0.004850024930000997</v>
+        <v>0.03482392682392683</v>
       </c>
       <c r="I22">
-        <v>-0.0009385170615406823</v>
+        <v>0.02314093114093114</v>
       </c>
       <c r="J22">
-        <v>0.002219878705378076</v>
+        <v>-0.007206445357780713</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1132,35 +1147,230 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>0.2218501120740045</v>
+        <v>0.01585735585735586</v>
       </c>
       <c r="E23">
-        <v>0.9773427223897089</v>
+        <v>0.02094978894978895</v>
       </c>
       <c r="F23">
-        <v>-0.5069012008646936</v>
+        <v>-0.02332219253382711</v>
       </c>
       <c r="G23">
-        <v>0.9866337280407811</v>
+        <v>0.05309401959938509</v>
       </c>
       <c r="H23">
-        <v>0.005140930957637237</v>
+        <v>0.008084180084180085</v>
       </c>
       <c r="I23">
-        <v>-0.01020257877610315</v>
+        <v>0.02651451851451852</v>
       </c>
       <c r="J23">
-        <v>-0.4745207522004523</v>
+        <v>0.003165483231958381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>-0.1133025173025173</v>
+      </c>
+      <c r="E24">
+        <v>0.01218543618543619</v>
+      </c>
+      <c r="F24">
+        <v>-0.01055634630462761</v>
+      </c>
+      <c r="G24">
+        <v>0.02380800057109075</v>
+      </c>
+      <c r="H24">
+        <v>0.127013023013023</v>
+      </c>
+      <c r="I24">
+        <v>-0.05307761307761308</v>
+      </c>
+      <c r="J24">
+        <v>0.0288293934348107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25">
+        <v>0.02177847377847378</v>
+      </c>
+      <c r="E25">
+        <v>0.118987018987019</v>
+      </c>
+      <c r="F25">
+        <v>-0.109892449920755</v>
+      </c>
+      <c r="G25">
+        <v>0.08727111178328113</v>
+      </c>
+      <c r="H25">
+        <v>-0.04283245883245883</v>
+      </c>
+      <c r="I25">
+        <v>-0.01765396165396165</v>
+      </c>
+      <c r="J25">
+        <v>0.05549061265591553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>0.06516769716769717</v>
+      </c>
+      <c r="E26">
+        <v>-0.00407996807996808</v>
+      </c>
+      <c r="F26">
+        <v>0.003492661818710853</v>
+      </c>
+      <c r="G26">
+        <v>-0.0271253758878128</v>
+      </c>
+      <c r="H26">
+        <v>-0.001013389013389013</v>
+      </c>
+      <c r="I26">
+        <v>-0.0006616566616566617</v>
+      </c>
+      <c r="J26">
+        <v>-0.0004775344875627119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27">
+        <v>0.04697230697230698</v>
+      </c>
+      <c r="E27">
+        <v>0.2252583692583693</v>
+      </c>
+      <c r="F27">
+        <v>-0.2266429261005496</v>
+      </c>
+      <c r="G27">
+        <v>0.1883809079856589</v>
+      </c>
+      <c r="H27">
+        <v>-0.05875856275856277</v>
+      </c>
+      <c r="I27">
+        <v>-0.01829105429105429</v>
+      </c>
+      <c r="J27">
+        <v>0.02128527373226449</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28">
+        <v>0.005201777201777202</v>
+      </c>
+      <c r="E28">
+        <v>0.02347275547275548</v>
+      </c>
+      <c r="F28">
+        <v>-0.01911756300589552</v>
+      </c>
+      <c r="G28">
+        <v>-0.01608198987021682</v>
+      </c>
+      <c r="H28">
+        <v>-0.03568517968517969</v>
+      </c>
+      <c r="I28">
+        <v>-0.02736665136665137</v>
+      </c>
+      <c r="J28">
+        <v>0.01935477176122197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29">
+        <v>-0.01474283074283074</v>
+      </c>
+      <c r="E29">
+        <v>-0.05583270783270784</v>
+      </c>
+      <c r="F29">
+        <v>0.05520869780244612</v>
+      </c>
+      <c r="G29">
+        <v>-0.03763024149768094</v>
+      </c>
+      <c r="H29">
+        <v>0.01704563304563305</v>
+      </c>
+      <c r="I29">
+        <v>-0.01078780678780679</v>
+      </c>
+      <c r="J29">
+        <v>-0.04839429741057767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30">
+        <v>0.2332626532626533</v>
+      </c>
+      <c r="E30">
+        <v>0.9786221586221586</v>
+      </c>
+      <c r="F30">
+        <v>-0.9777617552515073</v>
+      </c>
+      <c r="G30">
+        <v>0.3620140208969521</v>
+      </c>
+      <c r="H30">
+        <v>-0.1995100275100275</v>
+      </c>
+      <c r="I30">
+        <v>0.02691687891687892</v>
+      </c>
+      <c r="J30">
+        <v>0.4167244074756201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -620,25 +620,25 @@
         <v>29</v>
       </c>
       <c r="C4">
-        <v>-0.04703213903213904</v>
+        <v>-0.04699341499341499</v>
       </c>
       <c r="E4">
         <v>0.01016948216948217</v>
       </c>
       <c r="F4">
-        <v>-0.01145142399657209</v>
+        <v>-0.007132596059137766</v>
       </c>
       <c r="G4">
-        <v>0.02360804134723949</v>
+        <v>0.02335218640538148</v>
       </c>
       <c r="H4">
-        <v>0.01620804420804421</v>
+        <v>0.02695465495465496</v>
       </c>
       <c r="I4">
         <v>0.03146466746466747</v>
       </c>
       <c r="J4">
-        <v>-0.0001042441064332327</v>
+        <v>0.01806486017324933</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -647,25 +647,25 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>-0.02304263904263905</v>
+        <v>-0.02337817137817138</v>
       </c>
       <c r="E5">
         <v>-0.005490089490089491</v>
       </c>
       <c r="F5">
-        <v>0.004565473435166847</v>
+        <v>0.01359462292114856</v>
       </c>
       <c r="G5">
-        <v>0.001087860156901935</v>
+        <v>0.002071828897559966</v>
       </c>
       <c r="H5">
-        <v>0.006687222687222688</v>
+        <v>0.006393798393798395</v>
       </c>
       <c r="I5">
         <v>-0.006816534816534816</v>
       </c>
       <c r="J5">
-        <v>-0.04425021317946767</v>
+        <v>0.05561674995045045</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -674,25 +674,25 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>0.05571885171885172</v>
+        <v>0.05663590463590464</v>
       </c>
       <c r="E6">
         <v>0.01559155559155559</v>
       </c>
       <c r="F6">
-        <v>-0.016095642284392</v>
+        <v>-0.01901164495354718</v>
       </c>
       <c r="G6">
-        <v>0.01980965812798121</v>
+        <v>0.007710961273337992</v>
       </c>
       <c r="H6">
-        <v>0.01680929280929281</v>
+        <v>0.02061980061980062</v>
       </c>
       <c r="I6">
         <v>0.03009468609468609</v>
       </c>
       <c r="J6">
-        <v>-0.01477518308546193</v>
+        <v>0.02344607958675607</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -701,25 +701,25 @@
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-0.03359090159090159</v>
+        <v>-0.03400597000597001</v>
       </c>
       <c r="E7">
         <v>0.0425023865023865</v>
       </c>
       <c r="F7">
-        <v>-0.03901416244723518</v>
+        <v>-0.06612641193004069</v>
       </c>
       <c r="G7">
-        <v>0.002211816560156173</v>
+        <v>0.03669257042711203</v>
       </c>
       <c r="H7">
-        <v>-0.06901122901122901</v>
+        <v>-0.06378377178377179</v>
       </c>
       <c r="I7">
         <v>-0.04742785142785143</v>
       </c>
       <c r="J7">
-        <v>-0.0002537462590749306</v>
+        <v>-0.04567677995084063</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -728,25 +728,25 @@
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.2106182466182466</v>
+        <v>0.2038863598863599</v>
       </c>
       <c r="E8">
         <v>0.01943291543291543</v>
       </c>
       <c r="F8">
-        <v>-0.03446298116682447</v>
+        <v>-0.05614550834892823</v>
       </c>
       <c r="G8">
-        <v>0.01421701184620375</v>
+        <v>0.06374238481195806</v>
       </c>
       <c r="H8">
-        <v>0.9543772503772505</v>
+        <v>0.9768122208122209</v>
       </c>
       <c r="I8">
         <v>0.9574888414888415</v>
       </c>
       <c r="J8">
-        <v>0.3399375230762112</v>
+        <v>-0.2388229382558759</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -755,25 +755,25 @@
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.00304890304890305</v>
+        <v>0.003613263613263614</v>
       </c>
       <c r="E9">
         <v>-0.04782308382308383</v>
       </c>
       <c r="F9">
-        <v>0.04643195876749199</v>
+        <v>0.03638227887271094</v>
       </c>
       <c r="G9">
-        <v>-0.01306056564374596</v>
+        <v>-0.0444684338717683</v>
       </c>
       <c r="H9">
-        <v>0.03825565425565426</v>
+        <v>0.02944744144744145</v>
       </c>
       <c r="I9">
         <v>0.02799237999237999</v>
       </c>
       <c r="J9">
-        <v>0.02984029846694475</v>
+        <v>-0.02754427570954137</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -782,25 +782,25 @@
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.02317629517629518</v>
+        <v>-0.02215553815553815</v>
       </c>
       <c r="E10">
         <v>-0.02053244053244054</v>
       </c>
       <c r="F10">
-        <v>0.02156204947491306</v>
+        <v>0.01093921163281705</v>
       </c>
       <c r="G10">
-        <v>-0.021449272923778</v>
+        <v>-0.02416515715852441</v>
       </c>
       <c r="H10">
-        <v>-0.06567557367557368</v>
+        <v>-0.06988746988746988</v>
       </c>
       <c r="I10">
         <v>-0.09330344130344131</v>
       </c>
       <c r="J10">
-        <v>-0.04814592115698551</v>
+        <v>0.06718400558710962</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -809,25 +809,25 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.0420936180936181</v>
+        <v>-0.04248714648714649</v>
       </c>
       <c r="E11">
         <v>-0.002603918603918604</v>
       </c>
       <c r="F11">
-        <v>0.002781678120145027</v>
+        <v>0.009315560591769471</v>
       </c>
       <c r="G11">
-        <v>0.01225653446619433</v>
+        <v>-0.0110987109532978</v>
       </c>
       <c r="H11">
-        <v>-0.01190966390966391</v>
+        <v>-0.01074139074139074</v>
       </c>
       <c r="I11">
         <v>-0.015003147003147</v>
       </c>
       <c r="J11">
-        <v>-0.002041760084637047</v>
+        <v>0.01008474414525261</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -836,25 +836,25 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-0.02581783381783382</v>
+        <v>-0.02495224895224895</v>
       </c>
       <c r="E12">
         <v>0.02066982866982867</v>
       </c>
       <c r="F12">
-        <v>-0.01840437128342111</v>
+        <v>-0.01009157050366455</v>
       </c>
       <c r="G12">
-        <v>0.0319394267712684</v>
+        <v>0.0160169468422559</v>
       </c>
       <c r="H12">
-        <v>-0.06216102216102216</v>
+        <v>-0.05575305175305176</v>
       </c>
       <c r="I12">
         <v>-0.03115366315366316</v>
       </c>
       <c r="J12">
-        <v>0.0003074823139394426</v>
+        <v>-0.02074856687305827</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -863,25 +863,25 @@
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.01881061881061881</v>
+        <v>0.01924258324258324</v>
       </c>
       <c r="E13">
         <v>0.005824253824253825</v>
       </c>
       <c r="F13">
-        <v>-0.006798061609739425</v>
+        <v>-0.03423690540257183</v>
       </c>
       <c r="G13">
-        <v>-0.005127684685938349</v>
+        <v>0.004653890044915938</v>
       </c>
       <c r="H13">
-        <v>0.01975061575061575</v>
+        <v>0.01704110904110904</v>
       </c>
       <c r="I13">
         <v>0.01915155115155116</v>
       </c>
       <c r="J13">
-        <v>0.01417434847200979</v>
+        <v>0.0005873765909008505</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -892,25 +892,25 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.8818297858297859</v>
+        <v>0.8855650775650776</v>
       </c>
       <c r="E14">
         <v>-0.01078436278436279</v>
       </c>
       <c r="F14">
-        <v>0.009352841273017004</v>
+        <v>0.01629107299092888</v>
       </c>
       <c r="G14">
-        <v>0.007179816663309756</v>
+        <v>-0.009668677279661132</v>
       </c>
       <c r="H14">
-        <v>0.0004707124707124707</v>
+        <v>0.0002385002385002385</v>
       </c>
       <c r="I14">
         <v>0.000481968481968482</v>
       </c>
       <c r="J14">
-        <v>-0.007685815847217982</v>
+        <v>0.01432310040903901</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -921,25 +921,25 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.01524158724158724</v>
+        <v>-0.01503491103491103</v>
       </c>
       <c r="E15">
         <v>0.01059179859179859</v>
       </c>
       <c r="F15">
-        <v>-0.01033484790623225</v>
+        <v>-0.03098692648234342</v>
       </c>
       <c r="G15">
-        <v>-0.06775513284272172</v>
+        <v>0.009519416528067226</v>
       </c>
       <c r="H15">
-        <v>-0.05774218574218575</v>
+        <v>-0.0570926970926971</v>
       </c>
       <c r="I15">
         <v>-0.06471343671343671</v>
       </c>
       <c r="J15">
-        <v>0.003100905166024175</v>
+        <v>0.001888753900086423</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -950,25 +950,25 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>-0.04805728805728806</v>
+        <v>-0.05344660144660145</v>
       </c>
       <c r="E16">
         <v>-0.02131551331551331</v>
       </c>
       <c r="F16">
-        <v>0.02293118029992776</v>
+        <v>0.02241836154787277</v>
       </c>
       <c r="G16">
-        <v>-0.006237739585865887</v>
+        <v>-0.03129585673302161</v>
       </c>
       <c r="H16">
-        <v>0.00256975456975457</v>
+        <v>-0.002793350793350793</v>
       </c>
       <c r="I16">
         <v>-0.01223472023472024</v>
       </c>
       <c r="J16">
-        <v>0.01437434667620796</v>
+        <v>-0.04088310512840376</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -979,25 +979,25 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>0.00450947250947251</v>
+        <v>-0.0005709605709605709</v>
       </c>
       <c r="E17">
         <v>0.03182802782802783</v>
       </c>
       <c r="F17">
-        <v>-0.03540837540359893</v>
+        <v>-0.03194182930458597</v>
       </c>
       <c r="G17">
-        <v>0.01476152181593634</v>
+        <v>0.03691778672048535</v>
       </c>
       <c r="H17">
-        <v>0.001267045267045267</v>
+        <v>0.009723249723249724</v>
       </c>
       <c r="I17">
         <v>0.002827226827226827</v>
       </c>
       <c r="J17">
-        <v>-0.04204327292618167</v>
+        <v>0.07000457242459987</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1006,25 +1006,25 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.1153882873882874</v>
+        <v>0.1152071712071712</v>
       </c>
       <c r="E18">
         <v>-0.0005503565503565504</v>
       </c>
       <c r="F18">
-        <v>0.001516540421172923</v>
+        <v>0.004248536662775623</v>
       </c>
       <c r="G18">
-        <v>-0.005653288611146632</v>
+        <v>-0.002940054118279753</v>
       </c>
       <c r="H18">
-        <v>-0.01997374397374398</v>
+        <v>-0.01976607176607177</v>
       </c>
       <c r="I18">
         <v>0.2669475509475509</v>
       </c>
       <c r="J18">
-        <v>-0.01851000689871705</v>
+        <v>0.01915251126742634</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1033,25 +1033,25 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>-0.2185543225543226</v>
+        <v>-0.2180841020841021</v>
       </c>
       <c r="E19">
         <v>0.01122652722652723</v>
       </c>
       <c r="F19">
-        <v>-0.01022690673744007</v>
+        <v>0.007870492894754628</v>
       </c>
       <c r="G19">
-        <v>0.01379729765776399</v>
+        <v>0.0221312193387525</v>
       </c>
       <c r="H19">
-        <v>-0.01147226347226347</v>
+        <v>-0.005386757386757387</v>
       </c>
       <c r="I19">
         <v>-0.01395296595296595</v>
       </c>
       <c r="J19">
-        <v>0.02567220221131846</v>
+        <v>0.0008608568660220073</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1062,25 +1062,25 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.03611670011670012</v>
+        <v>0.03598840798840799</v>
       </c>
       <c r="E20">
         <v>0.04249863049863051</v>
       </c>
       <c r="F20">
-        <v>-0.04262674156441634</v>
+        <v>-0.05651264185834246</v>
       </c>
       <c r="G20">
-        <v>0.01424924744648932</v>
+        <v>0.03522421221017902</v>
       </c>
       <c r="H20">
-        <v>0.01134749934749935</v>
+        <v>0.01699283299283299</v>
       </c>
       <c r="I20">
         <v>0.007792087792087793</v>
       </c>
       <c r="J20">
-        <v>0.02148346593461873</v>
+        <v>-0.03073195891635067</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1091,25 +1091,25 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.01636931236931237</v>
+        <v>-0.01506323106323107</v>
       </c>
       <c r="E21">
         <v>0.0008373848373848374</v>
       </c>
       <c r="F21">
-        <v>-0.001937480979137614</v>
+        <v>0.000773806528125535</v>
       </c>
       <c r="G21">
-        <v>0.0201487435971261</v>
+        <v>-0.002063506359800996</v>
       </c>
       <c r="H21">
-        <v>-0.001198753198753199</v>
+        <v>-0.001079233079233079</v>
       </c>
       <c r="I21">
         <v>0.007805047805047806</v>
       </c>
       <c r="J21">
-        <v>-0.001158037182355963</v>
+        <v>-0.03102705121321352</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1120,25 +1120,25 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>-0.09787233787233787</v>
+        <v>-0.09701215301215302</v>
       </c>
       <c r="E22">
         <v>-0.03102611502611503</v>
       </c>
       <c r="F22">
-        <v>0.03108232856095479</v>
+        <v>0.03408426492969901</v>
       </c>
       <c r="G22">
-        <v>-0.0147190070469052</v>
+        <v>-0.02833595608682705</v>
       </c>
       <c r="H22">
-        <v>0.03482392682392683</v>
+        <v>0.02665963465963466</v>
       </c>
       <c r="I22">
         <v>0.02314093114093114</v>
       </c>
       <c r="J22">
-        <v>-0.007206445357780713</v>
+        <v>-0.009219447274763959</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1147,25 +1147,25 @@
         <v>45</v>
       </c>
       <c r="C23">
-        <v>0.01585735585735586</v>
+        <v>0.01524050724050724</v>
       </c>
       <c r="E23">
         <v>0.02094978894978895</v>
       </c>
       <c r="F23">
-        <v>-0.02332219253382711</v>
+        <v>-0.007903980686095118</v>
       </c>
       <c r="G23">
-        <v>0.05309401959938509</v>
+        <v>0.02718125351168523</v>
       </c>
       <c r="H23">
-        <v>0.008084180084180085</v>
+        <v>0.01521103521103521</v>
       </c>
       <c r="I23">
         <v>0.02651451851451852</v>
       </c>
       <c r="J23">
-        <v>0.003165483231958381</v>
+        <v>0.01005485811518727</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1176,25 +1176,25 @@
         <v>46</v>
       </c>
       <c r="C24">
-        <v>-0.1133025173025173</v>
+        <v>-0.1142429582429582</v>
       </c>
       <c r="E24">
         <v>0.01218543618543619</v>
       </c>
       <c r="F24">
-        <v>-0.01055634630462761</v>
+        <v>0.00231388680405151</v>
       </c>
       <c r="G24">
-        <v>0.02380800057109075</v>
+        <v>0.01513157496450145</v>
       </c>
       <c r="H24">
-        <v>0.127013023013023</v>
+        <v>0.1370689010689011</v>
       </c>
       <c r="I24">
         <v>-0.05307761307761308</v>
       </c>
       <c r="J24">
-        <v>0.0288293934348107</v>
+        <v>0.008122472171207006</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1205,25 +1205,25 @@
         <v>47</v>
       </c>
       <c r="C25">
-        <v>0.02177847377847378</v>
+        <v>0.02023979623979624</v>
       </c>
       <c r="E25">
         <v>0.118987018987019</v>
       </c>
       <c r="F25">
-        <v>-0.109892449920755</v>
+        <v>-0.09443721046067664</v>
       </c>
       <c r="G25">
-        <v>0.08727111178328113</v>
+        <v>0.08309410565669759</v>
       </c>
       <c r="H25">
-        <v>-0.04283245883245883</v>
+        <v>-0.03316828516828517</v>
       </c>
       <c r="I25">
         <v>-0.01765396165396165</v>
       </c>
       <c r="J25">
-        <v>0.05549061265591553</v>
+        <v>-0.01853676064798121</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1232,25 +1232,25 @@
         <v>48</v>
       </c>
       <c r="C26">
-        <v>0.06516769716769717</v>
+        <v>0.06612943812943814</v>
       </c>
       <c r="E26">
         <v>-0.00407996807996808</v>
       </c>
       <c r="F26">
-        <v>0.003492661818710853</v>
+        <v>0.00493151279220275</v>
       </c>
       <c r="G26">
-        <v>-0.0271253758878128</v>
+        <v>-0.002904435638227972</v>
       </c>
       <c r="H26">
-        <v>-0.001013389013389013</v>
+        <v>-0.001706197706197706</v>
       </c>
       <c r="I26">
         <v>-0.0006616566616566617</v>
       </c>
       <c r="J26">
-        <v>-0.0004775344875627119</v>
+        <v>0.004132054156846482</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1259,25 +1259,25 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>0.04697230697230698</v>
+        <v>0.0465970785970786</v>
       </c>
       <c r="E27">
         <v>0.2252583692583693</v>
       </c>
       <c r="F27">
-        <v>-0.2266429261005496</v>
+        <v>-0.1592702179082092</v>
       </c>
       <c r="G27">
-        <v>0.1883809079856589</v>
+        <v>0.2022380328924657</v>
       </c>
       <c r="H27">
-        <v>-0.05875856275856277</v>
+        <v>-0.02251911451911452</v>
       </c>
       <c r="I27">
         <v>-0.01829105429105429</v>
       </c>
       <c r="J27">
-        <v>0.02128527373226449</v>
+        <v>0.02163654376636303</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1286,25 +1286,25 @@
         <v>50</v>
       </c>
       <c r="C28">
-        <v>0.005201777201777202</v>
+        <v>0.004948588948588949</v>
       </c>
       <c r="E28">
         <v>0.02347275547275548</v>
       </c>
       <c r="F28">
-        <v>-0.01911756300589552</v>
+        <v>-0.009002309830901469</v>
       </c>
       <c r="G28">
-        <v>-0.01608198987021682</v>
+        <v>0.01860453157866024</v>
       </c>
       <c r="H28">
-        <v>-0.03568517968517969</v>
+        <v>-0.03140517140517141</v>
       </c>
       <c r="I28">
         <v>-0.02736665136665137</v>
       </c>
       <c r="J28">
-        <v>0.01935477176122197</v>
+        <v>0.0430870753455978</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1315,25 +1315,25 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>-0.01474283074283074</v>
+        <v>-0.01427672627672628</v>
       </c>
       <c r="E29">
         <v>-0.05583270783270784</v>
       </c>
       <c r="F29">
-        <v>0.05520869780244612</v>
+        <v>0.04979917430963807</v>
       </c>
       <c r="G29">
-        <v>-0.03763024149768094</v>
+        <v>-0.04973264954470642</v>
       </c>
       <c r="H29">
-        <v>0.01704563304563305</v>
+        <v>0.008113916113916115</v>
       </c>
       <c r="I29">
         <v>-0.01078780678780679</v>
       </c>
       <c r="J29">
-        <v>-0.04839429741057767</v>
+        <v>0.04074664099112084</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1342,25 +1342,25 @@
         <v>52</v>
       </c>
       <c r="C30">
-        <v>0.2332626532626533</v>
+        <v>0.2272703032703032</v>
       </c>
       <c r="E30">
         <v>0.9786221586221586</v>
       </c>
       <c r="F30">
-        <v>-0.9777617552515073</v>
+        <v>-0.7683386218888937</v>
       </c>
       <c r="G30">
-        <v>0.3620140208969521</v>
+        <v>0.9478196497099235</v>
       </c>
       <c r="H30">
-        <v>-0.1995100275100275</v>
+        <v>-0.03066137466137466</v>
       </c>
       <c r="I30">
         <v>0.02691687891687892</v>
       </c>
       <c r="J30">
-        <v>0.4167244074756201</v>
+        <v>-0.03440390861033206</v>
       </c>
     </row>
   </sheetData>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>Element</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Stream-sugarcane</t>
+    <t>biorefinery</t>
   </si>
   <si>
     <t>Stream-ethanol</t>
@@ -82,16 +82,13 @@
     <t>Stream-natural gas</t>
   </si>
   <si>
-    <t>biorefinery</t>
-  </si>
-  <si>
     <t>Stream-crude glycerol</t>
   </si>
   <si>
     <t>Stream-pure glycerine</t>
   </si>
   <si>
-    <t>Stream-cellulase</t>
+    <t>cellulase</t>
   </si>
   <si>
     <t>Pretreatment reactor system</t>
@@ -103,76 +100,82 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>lipidcane</t>
+  </si>
+  <si>
+    <t>lipidsorghum</t>
+  </si>
+  <si>
+    <t>Lipid retention [%]</t>
+  </si>
+  <si>
+    <t>Bagasse lipid extraction efficiency [%]</t>
+  </si>
+  <si>
+    <t>Capacity [ton/hr]</t>
+  </si>
+  <si>
+    <t>Price [USD/gal]</t>
+  </si>
+  <si>
+    <t>Price [USD/cf]</t>
+  </si>
+  <si>
+    <t>Electricity price [USD/kWh]</t>
+  </si>
+  <si>
+    <t>Operating days [day/yr]</t>
+  </si>
+  <si>
+    <t>IRR [%]</t>
+  </si>
+  <si>
+    <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Cellulase loading [wt. % cellulose]</t>
+  </si>
+  <si>
+    <t>Base cost [million USD]</t>
+  </si>
+  <si>
+    <t>Cane glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum glucose yield [%]</t>
+  </si>
+  <si>
+    <t>Cane xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Sorghum xylose yield [%]</t>
+  </si>
+  <si>
+    <t>Glucose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Xylose to ethanol yield [%]</t>
+  </si>
+  <si>
+    <t>Cane  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA [% lipid]</t>
+  </si>
+  <si>
     <t>Cane lipid content [dry wt. %]</t>
   </si>
   <si>
     <t>Relative sorghum lipid content [dry wt. %]</t>
   </si>
   <si>
-    <t>Lipid retention [%]</t>
-  </si>
-  <si>
-    <t>Bagasse lipid extraction efficiency [%]</t>
-  </si>
-  <si>
-    <t>Capacity [ton/hr]</t>
-  </si>
-  <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
-  </si>
-  <si>
     <t>TAG to  FFA conversion [% lipid]</t>
-  </si>
-  <si>
-    <t>Price [USD/gal]</t>
-  </si>
-  <si>
-    <t>Price [USD/cf]</t>
-  </si>
-  <si>
-    <t>Electricity price [USD/kWh]</t>
-  </si>
-  <si>
-    <t>Operating days [day/yr]</t>
-  </si>
-  <si>
-    <t>IRR [%]</t>
-  </si>
-  <si>
-    <t>Price [USD/kg]</t>
-  </si>
-  <si>
-    <t>Cellulase loading [wt. % cellulose]</t>
-  </si>
-  <si>
-    <t>Base cost [million USD]</t>
-  </si>
-  <si>
-    <t>Cane glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum glucose yield [%]</t>
-  </si>
-  <si>
-    <t>Cane xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Sorghum xylose yield [%]</t>
-  </si>
-  <si>
-    <t>Glucose to ethanol yield [%]</t>
-  </si>
-  <si>
-    <t>Xylose to ethanol yield [%]</t>
   </si>
 </sst>
 </file>
@@ -617,190 +620,198 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>-0.04699341499341499</v>
+        <v>-0.01198009198009198</v>
       </c>
       <c r="E4">
-        <v>0.01016948216948217</v>
+        <v>-0.01616344016344017</v>
       </c>
       <c r="F4">
-        <v>-0.007132596059137766</v>
+        <v>0.0108991957263257</v>
       </c>
       <c r="G4">
-        <v>0.02335218640538148</v>
+        <v>-0.00434345091761341</v>
       </c>
       <c r="H4">
-        <v>0.02695465495465496</v>
+        <v>0.03049843849843849</v>
       </c>
       <c r="I4">
-        <v>0.03146466746466747</v>
+        <v>0.01902651102651103</v>
       </c>
       <c r="J4">
-        <v>0.01806486017324933</v>
+        <v>0.0155068655999068</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>-0.02337817137817138</v>
+        <v>-0.004354612354612355</v>
       </c>
       <c r="E5">
-        <v>-0.005490089490089491</v>
+        <v>0.01238251238251238</v>
       </c>
       <c r="F5">
-        <v>0.01359462292114856</v>
+        <v>0.01183233908328524</v>
       </c>
       <c r="G5">
-        <v>0.002071828897559966</v>
+        <v>0.014046289394773</v>
       </c>
       <c r="H5">
-        <v>0.006393798393798395</v>
+        <v>0.04437216837216838</v>
       </c>
       <c r="I5">
-        <v>-0.006816534816534816</v>
+        <v>0.0271995391995392</v>
       </c>
       <c r="J5">
-        <v>0.05561674995045045</v>
+        <v>0.02447929862617442</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6">
-        <v>0.05663590463590464</v>
+        <v>0.2024563304563305</v>
       </c>
       <c r="E6">
-        <v>0.01559155559155559</v>
+        <v>-0.01755648555648556</v>
       </c>
       <c r="F6">
-        <v>-0.01901164495354718</v>
+        <v>-0.02325613287021497</v>
       </c>
       <c r="G6">
-        <v>0.007710961273337992</v>
+        <v>0.04663036581283386</v>
       </c>
       <c r="H6">
-        <v>0.02061980061980062</v>
+        <v>0.9773895053895055</v>
       </c>
       <c r="I6">
-        <v>0.03009468609468609</v>
+        <v>0.9576163776163775</v>
       </c>
       <c r="J6">
-        <v>0.02344607958675607</v>
+        <v>-0.2489507624444671</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>-0.03400597000597001</v>
+        <v>0.8867606747606749</v>
       </c>
       <c r="E7">
-        <v>0.0425023865023865</v>
+        <v>-0.09156514356514357</v>
       </c>
       <c r="F7">
-        <v>-0.06612641193004069</v>
+        <v>0.1019882421210261</v>
       </c>
       <c r="G7">
-        <v>0.03669257042711203</v>
+        <v>-0.08619427914639588</v>
       </c>
       <c r="H7">
-        <v>-0.06378377178377179</v>
+        <v>0.01538561138561139</v>
       </c>
       <c r="I7">
-        <v>-0.04742785142785143</v>
+        <v>0.01704668904668905</v>
       </c>
       <c r="J7">
-        <v>-0.04567677995084063</v>
+        <v>-0.04064882289271583</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>0.2038863598863599</v>
+        <v>-0.02599017799017799</v>
       </c>
       <c r="E8">
-        <v>0.01943291543291543</v>
+        <v>0.01660957660957661</v>
       </c>
       <c r="F8">
-        <v>-0.05614550834892823</v>
+        <v>-0.01731456995940283</v>
       </c>
       <c r="G8">
-        <v>0.06374238481195806</v>
+        <v>0.02645396890491712</v>
       </c>
       <c r="H8">
-        <v>0.9768122208122209</v>
+        <v>0.02318905118905119</v>
       </c>
       <c r="I8">
-        <v>0.9574888414888415</v>
+        <v>0.02262560262560263</v>
       </c>
       <c r="J8">
-        <v>-0.2388229382558759</v>
+        <v>-0.01367026375228534</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>0.003613263613263614</v>
+        <v>-0.01106450306450306</v>
       </c>
       <c r="E9">
-        <v>-0.04782308382308383</v>
+        <v>0.02624862224862225</v>
       </c>
       <c r="F9">
-        <v>0.03638227887271094</v>
+        <v>-0.02246295191414582</v>
       </c>
       <c r="G9">
-        <v>-0.0444684338717683</v>
+        <v>0.02758339026934743</v>
       </c>
       <c r="H9">
-        <v>0.02944744144744145</v>
+        <v>-0.02462744462744463</v>
       </c>
       <c r="I9">
-        <v>0.02799237999237999</v>
+        <v>-0.02031891231891232</v>
       </c>
       <c r="J9">
-        <v>-0.02754427570954137</v>
+        <v>0.04653534481455689</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>-0.02215553815553815</v>
+        <v>-0.003064971064971066</v>
       </c>
       <c r="E10">
-        <v>-0.02053244053244054</v>
+        <v>-0.00835852435852436</v>
       </c>
       <c r="F10">
-        <v>0.01093921163281705</v>
+        <v>-0.00340816092397068</v>
       </c>
       <c r="G10">
-        <v>-0.02416515715852441</v>
+        <v>-0.02508670159878253</v>
       </c>
       <c r="H10">
-        <v>-0.06988746988746988</v>
+        <v>-0.05330617730617731</v>
       </c>
       <c r="I10">
-        <v>-0.09330344130344131</v>
+        <v>-0.02584209784209784</v>
       </c>
       <c r="J10">
-        <v>0.06718400558710962</v>
+        <v>-0.02701195517402691</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -809,25 +820,25 @@
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-0.04248714648714649</v>
+        <v>0.1656032616032616</v>
       </c>
       <c r="E11">
-        <v>-0.002603918603918604</v>
+        <v>0.007793875793875795</v>
       </c>
       <c r="F11">
-        <v>0.009315560591769471</v>
+        <v>0.002376951646165296</v>
       </c>
       <c r="G11">
-        <v>-0.0110987109532978</v>
+        <v>0.008624194743721246</v>
       </c>
       <c r="H11">
-        <v>-0.01074139074139074</v>
+        <v>-0.04731675531675532</v>
       </c>
       <c r="I11">
-        <v>-0.015003147003147</v>
+        <v>0.2350591510591511</v>
       </c>
       <c r="J11">
-        <v>0.01008474414525261</v>
+        <v>0.04701528529737701</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -836,541 +847,547 @@
         <v>37</v>
       </c>
       <c r="C12">
-        <v>-0.02495224895224895</v>
+        <v>-0.2085903045903046</v>
       </c>
       <c r="E12">
-        <v>0.02066982866982867</v>
+        <v>0.01301797301797302</v>
       </c>
       <c r="F12">
-        <v>-0.01009157050366455</v>
+        <v>0.0208609091641693</v>
       </c>
       <c r="G12">
-        <v>0.0160169468422559</v>
+        <v>0.009704659485150762</v>
       </c>
       <c r="H12">
-        <v>-0.05575305175305176</v>
+        <v>-0.03627645627645628</v>
       </c>
       <c r="I12">
-        <v>-0.03115366315366316</v>
+        <v>-0.02596225396225397</v>
       </c>
       <c r="J12">
-        <v>-0.02074856687305827</v>
+        <v>-0.007949629997327779</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>0.01924258324258324</v>
+        <v>0.02291821091821092</v>
       </c>
       <c r="E13">
-        <v>0.005824253824253825</v>
+        <v>-0.004426216426216426</v>
       </c>
       <c r="F13">
-        <v>-0.03423690540257183</v>
+        <v>-0.01484772657527407</v>
       </c>
       <c r="G13">
-        <v>0.004653890044915938</v>
+        <v>-0.004517710233340182</v>
       </c>
       <c r="H13">
-        <v>0.01704110904110904</v>
+        <v>0.001959181959181959</v>
       </c>
       <c r="I13">
-        <v>0.01915155115155116</v>
+        <v>0.004987024987024987</v>
       </c>
       <c r="J13">
-        <v>0.0005873765909008505</v>
+        <v>-0.01705651115885023</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14">
-        <v>0.8855650775650776</v>
+        <v>-0.01833169833169834</v>
       </c>
       <c r="E14">
-        <v>-0.01078436278436279</v>
+        <v>-0.005495417495417496</v>
       </c>
       <c r="F14">
-        <v>0.01629107299092888</v>
+        <v>-0.0233727682042903</v>
       </c>
       <c r="G14">
-        <v>-0.009668677279661132</v>
+        <v>-0.01508806700724718</v>
       </c>
       <c r="H14">
-        <v>0.0002385002385002385</v>
+        <v>0.03515692715692716</v>
       </c>
       <c r="I14">
-        <v>0.000481968481968482</v>
+        <v>0.02794845994845995</v>
       </c>
       <c r="J14">
-        <v>0.01432310040903901</v>
+        <v>0.006584808624317476</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>-0.02155721755721756</v>
+      </c>
+      <c r="E15">
+        <v>0.01674137274137274</v>
+      </c>
+      <c r="F15">
+        <v>0.04007238716401275</v>
+      </c>
+      <c r="G15">
+        <v>0.01484161153796559</v>
+      </c>
+      <c r="H15">
+        <v>-0.004724968724968725</v>
+      </c>
+      <c r="I15">
+        <v>0.01412559812559813</v>
+      </c>
+      <c r="J15">
+        <v>-0.05564425997812553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>-0.01503491103491103</v>
-      </c>
-      <c r="E15">
-        <v>0.01059179859179859</v>
-      </c>
-      <c r="F15">
-        <v>-0.03098692648234342</v>
-      </c>
-      <c r="G15">
-        <v>0.009519416528067226</v>
-      </c>
-      <c r="H15">
-        <v>-0.0570926970926971</v>
-      </c>
-      <c r="I15">
-        <v>-0.06471343671343671</v>
-      </c>
-      <c r="J15">
-        <v>0.001888753900086423</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>-0.05344660144660145</v>
+        <v>0.012003612003612</v>
       </c>
       <c r="E16">
-        <v>-0.02131551331551331</v>
+        <v>-0.04393101193101193</v>
       </c>
       <c r="F16">
-        <v>0.02241836154787277</v>
+        <v>0.05772971450839176</v>
       </c>
       <c r="G16">
-        <v>-0.03129585673302161</v>
+        <v>-0.04504607647270359</v>
       </c>
       <c r="H16">
-        <v>-0.002793350793350793</v>
+        <v>-0.004834816834816835</v>
       </c>
       <c r="I16">
-        <v>-0.01223472023472024</v>
+        <v>-0.002670542670542671</v>
       </c>
       <c r="J16">
-        <v>-0.04088310512840376</v>
+        <v>-0.004336660362680325</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>-0.04938026538026538</v>
+      </c>
+      <c r="E17">
+        <v>0.03618201618201618</v>
+      </c>
+      <c r="F17">
+        <v>-0.05852814466133788</v>
+      </c>
+      <c r="G17">
+        <v>0.02882642023436993</v>
+      </c>
+      <c r="H17">
+        <v>0.1804393924393924</v>
+      </c>
+      <c r="I17">
+        <v>-0.009847689847689849</v>
+      </c>
+      <c r="J17">
+        <v>-0.03976209400066657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17">
-        <v>-0.0005709605709605709</v>
-      </c>
-      <c r="E17">
-        <v>0.03182802782802783</v>
-      </c>
-      <c r="F17">
-        <v>-0.03194182930458597</v>
-      </c>
-      <c r="G17">
-        <v>0.03691778672048535</v>
-      </c>
-      <c r="H17">
-        <v>0.009723249723249724</v>
-      </c>
-      <c r="I17">
-        <v>0.002827226827226827</v>
-      </c>
-      <c r="J17">
-        <v>0.07000457242459987</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C18">
-        <v>0.1152071712071712</v>
+        <v>0.07015339015339016</v>
       </c>
       <c r="E18">
-        <v>-0.0005503565503565504</v>
+        <v>0.1299567219567219</v>
       </c>
       <c r="F18">
-        <v>0.004248536662775623</v>
+        <v>-0.0559282083455265</v>
       </c>
       <c r="G18">
-        <v>-0.002940054118279753</v>
+        <v>0.1023957624682462</v>
       </c>
       <c r="H18">
-        <v>-0.01976607176607177</v>
+        <v>0.01196399996399997</v>
       </c>
       <c r="I18">
-        <v>0.2669475509475509</v>
+        <v>0.01689010089010089</v>
       </c>
       <c r="J18">
-        <v>0.01915251126742634</v>
+        <v>-0.01779536990214212</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0.0171989331989332</v>
+      </c>
+      <c r="E19">
+        <v>-0.009219585219585222</v>
+      </c>
+      <c r="F19">
+        <v>-0.01643280804748053</v>
+      </c>
+      <c r="G19">
+        <v>-0.01424253707229795</v>
+      </c>
+      <c r="H19">
+        <v>-0.0206993726993727</v>
+      </c>
+      <c r="I19">
+        <v>-0.02482634482634483</v>
+      </c>
+      <c r="J19">
+        <v>0.02221192034519187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19">
-        <v>-0.2180841020841021</v>
-      </c>
-      <c r="E19">
-        <v>0.01122652722652723</v>
-      </c>
-      <c r="F19">
-        <v>0.007870492894754628</v>
-      </c>
-      <c r="G19">
-        <v>0.0221312193387525</v>
-      </c>
-      <c r="H19">
-        <v>-0.005386757386757387</v>
-      </c>
-      <c r="I19">
-        <v>-0.01395296595296595</v>
-      </c>
-      <c r="J19">
-        <v>0.0008608568660220073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C20">
-        <v>0.03598840798840799</v>
+        <v>-0.05052327852327853</v>
       </c>
       <c r="E20">
-        <v>0.04249863049863051</v>
+        <v>0.1528779448779449</v>
       </c>
       <c r="F20">
-        <v>-0.05651264185834246</v>
+        <v>-0.1086557173782183</v>
       </c>
       <c r="G20">
-        <v>0.03522421221017902</v>
+        <v>0.1232276231505097</v>
       </c>
       <c r="H20">
-        <v>0.01699283299283299</v>
+        <v>-0.09593806793806794</v>
       </c>
       <c r="I20">
-        <v>0.007792087792087793</v>
+        <v>-0.08057872457872459</v>
       </c>
       <c r="J20">
-        <v>-0.03073195891635067</v>
+        <v>0.03509276930332592</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C21">
-        <v>-0.01506323106323107</v>
+        <v>-0.01740482940482941</v>
       </c>
       <c r="E21">
-        <v>0.0008373848373848374</v>
+        <v>0.01613401613401613</v>
       </c>
       <c r="F21">
-        <v>0.000773806528125535</v>
+        <v>0.007931694260413272</v>
       </c>
       <c r="G21">
-        <v>-0.002063506359800996</v>
+        <v>0.01126994592556362</v>
       </c>
       <c r="H21">
-        <v>-0.001079233079233079</v>
+        <v>-0.01801929001929002</v>
       </c>
       <c r="I21">
-        <v>0.007805047805047806</v>
+        <v>-0.02576385776385776</v>
       </c>
       <c r="J21">
-        <v>-0.03102705121321352</v>
+        <v>0.0484490767397712</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>-0.09701215301215302</v>
+        <v>0.02791843591843592</v>
       </c>
       <c r="E22">
-        <v>-0.03102611502611503</v>
+        <v>0.003298971298971299</v>
       </c>
       <c r="F22">
-        <v>0.03408426492969901</v>
+        <v>0.0221872507436094</v>
       </c>
       <c r="G22">
-        <v>-0.02833595608682705</v>
+        <v>0.01368990450430997</v>
       </c>
       <c r="H22">
-        <v>0.02665963465963466</v>
+        <v>0.05292487692487693</v>
       </c>
       <c r="I22">
-        <v>0.02314093114093114</v>
+        <v>0.0384011424011424</v>
       </c>
       <c r="J22">
-        <v>-0.009219447274763959</v>
+        <v>-0.04212051037323344</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>0.01524050724050724</v>
+        <v>0.1466297066297066</v>
       </c>
       <c r="E23">
-        <v>0.02094978894978895</v>
+        <v>0.977995997995998</v>
       </c>
       <c r="F23">
-        <v>-0.007903980686095118</v>
+        <v>-0.7726664696251166</v>
       </c>
       <c r="G23">
-        <v>0.02718125351168523</v>
+        <v>0.947793965451637</v>
       </c>
       <c r="H23">
-        <v>0.01521103521103521</v>
+        <v>-0.05572908772908774</v>
       </c>
       <c r="I23">
-        <v>0.02651451851451852</v>
+        <v>-0.001917109917109917</v>
       </c>
       <c r="J23">
-        <v>0.01005485811518727</v>
+        <v>0.01741147751594638</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24">
-        <v>-0.1142429582429582</v>
+        <v>0.02374822774822775</v>
       </c>
       <c r="E24">
-        <v>0.01218543618543619</v>
+        <v>-0.03743036543036544</v>
       </c>
       <c r="F24">
-        <v>0.00231388680405151</v>
+        <v>0.01063715460454077</v>
       </c>
       <c r="G24">
-        <v>0.01513157496450145</v>
+        <v>-0.03287509083798361</v>
       </c>
       <c r="H24">
-        <v>0.1370689010689011</v>
+        <v>0.006485274485274486</v>
       </c>
       <c r="I24">
-        <v>-0.05307761307761308</v>
+        <v>-0.0100943620943621</v>
       </c>
       <c r="J24">
-        <v>0.008122472171207006</v>
+        <v>-0.03539783961022665</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C25">
-        <v>0.02023979623979624</v>
+        <v>0.02694774294774295</v>
       </c>
       <c r="E25">
-        <v>0.118987018987019</v>
+        <v>0.007807159807159808</v>
       </c>
       <c r="F25">
-        <v>-0.09443721046067664</v>
+        <v>0.003394039674106306</v>
       </c>
       <c r="G25">
-        <v>0.08309410565669759</v>
+        <v>0.005371924022723509</v>
       </c>
       <c r="H25">
-        <v>-0.03316828516828517</v>
+        <v>-0.03632484032484033</v>
       </c>
       <c r="I25">
-        <v>-0.01765396165396165</v>
+        <v>-0.02873820473820474</v>
       </c>
       <c r="J25">
-        <v>-0.01853676064798121</v>
+        <v>0.007813267860147468</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C26">
-        <v>0.06612943812943814</v>
+        <v>-0.02870995670995671</v>
       </c>
       <c r="E26">
-        <v>-0.00407996807996808</v>
+        <v>0.02458107658107658</v>
       </c>
       <c r="F26">
-        <v>0.00493151279220275</v>
+        <v>-0.0359219169804117</v>
       </c>
       <c r="G26">
-        <v>-0.002904435638227972</v>
+        <v>0.02305808630880597</v>
       </c>
       <c r="H26">
-        <v>-0.001706197706197706</v>
+        <v>-0.03753961353961355</v>
       </c>
       <c r="I26">
-        <v>-0.0006616566616566617</v>
+        <v>-0.03225016425016425</v>
       </c>
       <c r="J26">
-        <v>0.004132054156846482</v>
+        <v>0.02875170492421516</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27">
-        <v>0.0465970785970786</v>
+        <v>0.003551571551571552</v>
       </c>
       <c r="E27">
-        <v>0.2252583692583693</v>
+        <v>-0.01436643836643837</v>
       </c>
       <c r="F27">
-        <v>-0.1592702179082092</v>
+        <v>0.02751899048290421</v>
       </c>
       <c r="G27">
-        <v>0.2022380328924657</v>
+        <v>-0.01957486965597527</v>
       </c>
       <c r="H27">
-        <v>-0.02251911451911452</v>
+        <v>0.02865782865782866</v>
       </c>
       <c r="I27">
-        <v>-0.01829105429105429</v>
+        <v>0.03971495171495171</v>
       </c>
       <c r="J27">
-        <v>0.02163654376636303</v>
+        <v>-0.05568975802389658</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28">
-        <v>0.004948588948588949</v>
+        <v>0.02879059679059679</v>
       </c>
       <c r="E28">
-        <v>0.02347275547275548</v>
+        <v>-0.01217289617289617</v>
       </c>
       <c r="F28">
-        <v>-0.009002309830901469</v>
+        <v>0.01148970913545867</v>
       </c>
       <c r="G28">
-        <v>0.01860453157866024</v>
+        <v>0.004559667743993951</v>
       </c>
       <c r="H28">
-        <v>-0.03140517140517141</v>
+        <v>0.01048857448857449</v>
       </c>
       <c r="I28">
-        <v>-0.02736665136665137</v>
+        <v>0.004126060126060127</v>
       </c>
       <c r="J28">
-        <v>0.0430870753455978</v>
+        <v>-0.05813234848114258</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C29">
-        <v>-0.01427672627672628</v>
+        <v>-0.06836621636621637</v>
       </c>
       <c r="E29">
-        <v>-0.05583270783270784</v>
+        <v>-0.03270920070920071</v>
       </c>
       <c r="F29">
-        <v>0.04979917430963807</v>
+        <v>0.05319760647231086</v>
       </c>
       <c r="G29">
-        <v>-0.04973264954470642</v>
+        <v>-0.03475641507343601</v>
       </c>
       <c r="H29">
-        <v>0.008113916113916115</v>
+        <v>-0.01975119175119175</v>
       </c>
       <c r="I29">
-        <v>-0.01078780678780679</v>
+        <v>-0.03041409041409042</v>
       </c>
       <c r="J29">
-        <v>0.04074664099112084</v>
+        <v>-0.005869457904674652</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B30" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C30">
-        <v>0.2272703032703032</v>
+        <v>0.03730634530634531</v>
       </c>
       <c r="E30">
-        <v>0.9786221586221586</v>
+        <v>0.0298954498954499</v>
       </c>
       <c r="F30">
-        <v>-0.7683386218888937</v>
+        <v>-0.01779844274805163</v>
       </c>
       <c r="G30">
-        <v>0.9478196497099235</v>
+        <v>0.03347399187431875</v>
       </c>
       <c r="H30">
-        <v>-0.03066137466137466</v>
+        <v>0.02282738282738283</v>
       </c>
       <c r="I30">
-        <v>0.02691687891687892</v>
+        <v>0.01143314343314343</v>
       </c>
       <c r="J30">
-        <v>-0.03440390861033206</v>
+        <v>0.01166048973045267</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:P1"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A29:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Element</t>
   </si>
@@ -100,6 +100,9 @@
     <t>Cofermenation</t>
   </si>
   <si>
+    <t>Cofermentation</t>
+  </si>
+  <si>
     <t>lipidcane</t>
   </si>
   <si>
@@ -157,16 +160,22 @@
     <t>Xylose to ethanol yield [%]</t>
   </si>
   <si>
-    <t>Cane  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  PL [% lipid]</t>
-  </si>
-  <si>
-    <t>Cane  FFA [% lipid]</t>
-  </si>
-  <si>
-    <t>Sorghum  FFA [% lipid]</t>
+    <t>Titer [g/L]</t>
+  </si>
+  <si>
+    <t>Productivity [g/L]</t>
+  </si>
+  <si>
+    <t>Cane  PL content [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  PL content [% lipid]</t>
+  </si>
+  <si>
+    <t>Cane  FFA content [% lipid]</t>
+  </si>
+  <si>
+    <t>Sorghum  FFA content [% lipid]</t>
   </si>
   <si>
     <t>Cane lipid content [dry wt. %]</t>
@@ -533,7 +542,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,82 +629,82 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>-0.01198009198009198</v>
+        <v>0.03302554725638682</v>
       </c>
       <c r="E4">
-        <v>-0.01616344016344017</v>
+        <v>0.03144528336132084</v>
       </c>
       <c r="F4">
-        <v>0.0108991957263257</v>
+        <v>-0.01532308973584946</v>
       </c>
       <c r="G4">
-        <v>-0.00434345091761341</v>
+        <v>0.02603540300885075</v>
       </c>
       <c r="H4">
-        <v>0.03049843849843849</v>
+        <v>-0.005699593424898356</v>
       </c>
       <c r="I4">
-        <v>0.01902651102651103</v>
+        <v>-0.0116191664047916</v>
       </c>
       <c r="J4">
-        <v>0.0155068655999068</v>
+        <v>0.02674363586642851</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5">
-        <v>-0.004354612354612355</v>
+        <v>-0.009429114857278712</v>
       </c>
       <c r="E5">
-        <v>0.01238251238251238</v>
+        <v>0.008746808186702046</v>
       </c>
       <c r="F5">
-        <v>0.01183233908328524</v>
+        <v>-0.008737832318378023</v>
       </c>
       <c r="G5">
-        <v>0.014046289394773</v>
+        <v>0.007137070784267696</v>
       </c>
       <c r="H5">
-        <v>0.04437216837216838</v>
+        <v>-0.004302917575729394</v>
       </c>
       <c r="I5">
-        <v>0.0271995391995392</v>
+        <v>-0.001179184794796199</v>
       </c>
       <c r="J5">
-        <v>0.02447929862617442</v>
+        <v>-0.01149340870093269</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>0.2024563304563305</v>
+        <v>0.1881002390250598</v>
       </c>
       <c r="E6">
-        <v>-0.01755648555648556</v>
+        <v>-0.01715119778779945</v>
       </c>
       <c r="F6">
-        <v>-0.02325613287021497</v>
+        <v>0.04469498505044567</v>
       </c>
       <c r="G6">
-        <v>0.04663036581283386</v>
+        <v>0.1999976794994199</v>
       </c>
       <c r="H6">
-        <v>0.9773895053895055</v>
+        <v>0.9817885389471347</v>
       </c>
       <c r="I6">
-        <v>0.9576163776163775</v>
+        <v>0.9576270249067561</v>
       </c>
       <c r="J6">
-        <v>-0.2489507624444671</v>
+        <v>-0.2492189544869666</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -703,28 +712,28 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7">
-        <v>0.8867606747606749</v>
+        <v>0.9308796002199</v>
       </c>
       <c r="E7">
-        <v>-0.09156514356514357</v>
+        <v>-0.01721666830416708</v>
       </c>
       <c r="F7">
-        <v>0.1019882421210261</v>
+        <v>0.003219359025429931</v>
       </c>
       <c r="G7">
-        <v>-0.08619427914639588</v>
+        <v>-0.009589289397322349</v>
       </c>
       <c r="H7">
-        <v>0.01538561138561139</v>
+        <v>0.0147339891834973</v>
       </c>
       <c r="I7">
-        <v>0.01704668904668905</v>
+        <v>0.01047732411933103</v>
       </c>
       <c r="J7">
-        <v>-0.04064882289271583</v>
+        <v>0.004336878363493521</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -732,28 +741,28 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8">
-        <v>-0.02599017799017799</v>
+        <v>-0.00630172807543202</v>
       </c>
       <c r="E8">
-        <v>0.01660957660957661</v>
+        <v>0.02242992260748065</v>
       </c>
       <c r="F8">
-        <v>-0.01731456995940283</v>
+        <v>-0.01275676226812258</v>
       </c>
       <c r="G8">
-        <v>0.02645396890491712</v>
+        <v>0.01863781665945416</v>
       </c>
       <c r="H8">
-        <v>0.02318905118905119</v>
+        <v>0.001609951902487975</v>
       </c>
       <c r="I8">
-        <v>0.02262560262560263</v>
+        <v>-0.003575954393988598</v>
       </c>
       <c r="J8">
-        <v>-0.01367026375228534</v>
+        <v>0.004825294988894489</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -761,28 +770,28 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
-        <v>-0.01106450306450306</v>
+        <v>-0.02766569491642373</v>
       </c>
       <c r="E9">
-        <v>0.02624862224862225</v>
+        <v>0.01065512816378204</v>
       </c>
       <c r="F9">
-        <v>-0.02246295191414582</v>
+        <v>-0.02392336215863199</v>
       </c>
       <c r="G9">
-        <v>0.02758339026934743</v>
+        <v>0.01254983713745928</v>
       </c>
       <c r="H9">
-        <v>-0.02462744462744463</v>
+        <v>-0.0006616411654102913</v>
       </c>
       <c r="I9">
-        <v>-0.02031891231891232</v>
+        <v>5.008951252237813E-05</v>
       </c>
       <c r="J9">
-        <v>0.04653534481455689</v>
+        <v>-0.0002797305718208243</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -790,82 +799,82 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>-0.003064971064971066</v>
+        <v>0.01749843887460972</v>
       </c>
       <c r="E10">
-        <v>-0.00835852435852436</v>
+        <v>0.04268732867183217</v>
       </c>
       <c r="F10">
-        <v>-0.00340816092397068</v>
+        <v>0.05129459892420526</v>
       </c>
       <c r="G10">
-        <v>-0.02508670159878253</v>
+        <v>0.05039222459805615</v>
       </c>
       <c r="H10">
-        <v>-0.05330617730617731</v>
+        <v>0.05878977569744393</v>
       </c>
       <c r="I10">
-        <v>-0.02584209784209784</v>
+        <v>0.05932141033035258</v>
       </c>
       <c r="J10">
-        <v>-0.02701195517402691</v>
+        <v>0.04646480992983996</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>0.1656032616032616</v>
+        <v>0.1230498022624506</v>
       </c>
       <c r="E11">
-        <v>0.007793875793875795</v>
+        <v>-0.01301618275404569</v>
       </c>
       <c r="F11">
-        <v>0.002376951646165296</v>
+        <v>0.02080754706842953</v>
       </c>
       <c r="G11">
-        <v>0.008624194743721246</v>
+        <v>-0.0231750987937747</v>
       </c>
       <c r="H11">
-        <v>-0.04731675531675532</v>
+        <v>-0.02432562608140652</v>
       </c>
       <c r="I11">
-        <v>0.2350591510591511</v>
+        <v>0.2622912295728074</v>
       </c>
       <c r="J11">
-        <v>0.04701528529737701</v>
+        <v>0.05625928594457167</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.2085903045903046</v>
+        <v>-0.2294308173577043</v>
       </c>
       <c r="E12">
-        <v>0.01301797301797302</v>
+        <v>0.01107415926853982</v>
       </c>
       <c r="F12">
-        <v>0.0208609091641693</v>
+        <v>-0.00804065536550096</v>
       </c>
       <c r="G12">
-        <v>0.009704659485150762</v>
+        <v>0.008770362692590674</v>
       </c>
       <c r="H12">
-        <v>-0.03627645627645628</v>
+        <v>-0.01295213723803431</v>
       </c>
       <c r="I12">
-        <v>-0.02596225396225397</v>
+        <v>-0.009278277819569454</v>
       </c>
       <c r="J12">
-        <v>-0.007949629997327779</v>
+        <v>0.01445189021052281</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -873,28 +882,28 @@
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>0.02291821091821092</v>
+        <v>0.01902793375698344</v>
       </c>
       <c r="E13">
-        <v>-0.004426216426216426</v>
+        <v>0.0220777060194265</v>
       </c>
       <c r="F13">
-        <v>-0.01484772657527407</v>
+        <v>-0.009210764759086524</v>
       </c>
       <c r="G13">
-        <v>-0.004517710233340182</v>
+        <v>0.01700492675123169</v>
       </c>
       <c r="H13">
-        <v>0.001959181959181959</v>
+        <v>-0.004266127066531767</v>
       </c>
       <c r="I13">
-        <v>0.004987024987024987</v>
+        <v>-0.002487198621799656</v>
       </c>
       <c r="J13">
-        <v>-0.01705651115885023</v>
+        <v>0.03666955316490778</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -902,28 +911,28 @@
         <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14">
-        <v>-0.01833169833169834</v>
+        <v>0.005234281308570327</v>
       </c>
       <c r="E14">
-        <v>-0.005495417495417496</v>
+        <v>0.04060616965154241</v>
       </c>
       <c r="F14">
-        <v>-0.0233727682042903</v>
+        <v>0.007366491846662832</v>
       </c>
       <c r="G14">
-        <v>-0.01508806700724718</v>
+        <v>0.04729486932371733</v>
       </c>
       <c r="H14">
-        <v>0.03515692715692716</v>
+        <v>0.02120230130057532</v>
       </c>
       <c r="I14">
-        <v>0.02794845994845995</v>
+        <v>0.008973687743421936</v>
       </c>
       <c r="J14">
-        <v>0.006584808624317476</v>
+        <v>-0.03433913981657415</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -931,55 +940,55 @@
         <v>24</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.02155721755721756</v>
+        <v>-0.04858898714724679</v>
       </c>
       <c r="E15">
-        <v>0.01674137274137274</v>
+        <v>0.02381072845268211</v>
       </c>
       <c r="F15">
-        <v>0.04007238716401275</v>
+        <v>-0.01292439426742225</v>
       </c>
       <c r="G15">
-        <v>0.01484161153796559</v>
+        <v>0.03612859653214913</v>
       </c>
       <c r="H15">
-        <v>-0.004724968724968725</v>
+        <v>0.02573739193434799</v>
       </c>
       <c r="I15">
-        <v>0.01412559812559813</v>
+        <v>0.03034157858539465</v>
       </c>
       <c r="J15">
-        <v>-0.05564425997812553</v>
+        <v>-0.0310454344709153</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>0.012003612003612</v>
+        <v>0.002594852148713037</v>
       </c>
       <c r="E16">
-        <v>-0.04393101193101193</v>
+        <v>-0.02405904451476113</v>
       </c>
       <c r="F16">
-        <v>0.05772971450839176</v>
+        <v>-0.02285884807206873</v>
       </c>
       <c r="G16">
-        <v>-0.04504607647270359</v>
+        <v>-0.0287725391931348</v>
       </c>
       <c r="H16">
-        <v>-0.004834816834816835</v>
+        <v>-0.02248456912114228</v>
       </c>
       <c r="I16">
-        <v>-0.002670542670542671</v>
+        <v>-0.01607945951986488</v>
       </c>
       <c r="J16">
-        <v>-0.004336660362680325</v>
+        <v>0.04004475878149182</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -987,28 +996,28 @@
         <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>-0.04938026538026538</v>
+        <v>-0.04998831499707875</v>
       </c>
       <c r="E17">
-        <v>0.03618201618201618</v>
+        <v>0.01269840917460229</v>
       </c>
       <c r="F17">
-        <v>-0.05852814466133788</v>
+        <v>0.02076497953054864</v>
       </c>
       <c r="G17">
-        <v>0.02882642023436993</v>
+        <v>0.009470822367705592</v>
       </c>
       <c r="H17">
-        <v>0.1804393924393924</v>
+        <v>0.1943403815850954</v>
       </c>
       <c r="I17">
-        <v>-0.009847689847689849</v>
+        <v>0.001017133754283439</v>
       </c>
       <c r="J17">
-        <v>-0.03976209400066657</v>
+        <v>0.01671293079104498</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1016,109 +1025,109 @@
         <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>0.07015339015339016</v>
+        <v>0.03600951600237901</v>
       </c>
       <c r="E18">
-        <v>0.1299567219567219</v>
+        <v>0.415513404378351</v>
       </c>
       <c r="F18">
-        <v>-0.0559282083455265</v>
+        <v>-0.0215363488120978</v>
       </c>
       <c r="G18">
-        <v>0.1023957624682462</v>
+        <v>0.3908180657045164</v>
       </c>
       <c r="H18">
-        <v>0.01196399996399997</v>
+        <v>0.02201715850428963</v>
       </c>
       <c r="I18">
-        <v>0.01689010089010089</v>
+        <v>0.009544404886101221</v>
       </c>
       <c r="J18">
-        <v>-0.01779536990214212</v>
+        <v>0.05259728250435229</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>0.0171989331989332</v>
+        <v>0.02912292278073069</v>
       </c>
       <c r="E19">
-        <v>-0.009219585219585222</v>
+        <v>0.004795075198768799</v>
       </c>
       <c r="F19">
-        <v>-0.01643280804748053</v>
+        <v>0.03454250377453033</v>
       </c>
       <c r="G19">
-        <v>-0.01424253707229795</v>
+        <v>0.003093228773307193</v>
       </c>
       <c r="H19">
-        <v>-0.0206993726993727</v>
+        <v>0.0008480792120198029</v>
       </c>
       <c r="I19">
-        <v>-0.02482634482634483</v>
+        <v>-0.006618253654563414</v>
       </c>
       <c r="J19">
-        <v>0.02221192034519187</v>
+        <v>0.01984336634478431</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>-0.05052327852327853</v>
+        <v>0.03276830769207693</v>
       </c>
       <c r="E20">
-        <v>0.1528779448779449</v>
+        <v>0.5353085673271418</v>
       </c>
       <c r="F20">
-        <v>-0.1086557173782183</v>
+        <v>-0.01131301340609062</v>
       </c>
       <c r="G20">
-        <v>0.1232276231505097</v>
+        <v>0.523512463878116</v>
       </c>
       <c r="H20">
-        <v>-0.09593806793806794</v>
+        <v>-0.01326975181743795</v>
       </c>
       <c r="I20">
-        <v>-0.08057872457872459</v>
+        <v>-0.03183967695991924</v>
       </c>
       <c r="J20">
-        <v>0.03509276930332592</v>
+        <v>0.1379680869233063</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.01740482940482941</v>
+        <v>-0.01528757782189446</v>
       </c>
       <c r="E21">
-        <v>0.01613401613401613</v>
+        <v>-0.01980588645147162</v>
       </c>
       <c r="F21">
-        <v>0.007931694260413272</v>
+        <v>-0.01287266792080702</v>
       </c>
       <c r="G21">
-        <v>0.01126994592556362</v>
+        <v>-0.02336593634148408</v>
       </c>
       <c r="H21">
-        <v>-0.01801929001929002</v>
+        <v>-0.02484766371191593</v>
       </c>
       <c r="I21">
-        <v>-0.02576385776385776</v>
+        <v>-0.03873141518285379</v>
       </c>
       <c r="J21">
-        <v>0.0484490767397712</v>
+        <v>-0.01069569874612065</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1126,55 +1135,55 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>0.02791843591843592</v>
+        <v>0.03006307501576876</v>
       </c>
       <c r="E22">
-        <v>0.003298971298971299</v>
+        <v>0.5999393354848338</v>
       </c>
       <c r="F22">
-        <v>0.0221872507436094</v>
+        <v>-0.02296591268987048</v>
       </c>
       <c r="G22">
-        <v>0.01368990450430997</v>
+        <v>0.5812048573012143</v>
       </c>
       <c r="H22">
-        <v>0.05292487692487693</v>
+        <v>-0.00375463143865786</v>
       </c>
       <c r="I22">
-        <v>0.0384011424011424</v>
+        <v>0.004501625625406406</v>
       </c>
       <c r="J22">
-        <v>-0.04212051037323344</v>
+        <v>0.08947027022149188</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>0.1466297066297066</v>
+        <v>-0.001728802932200733</v>
       </c>
       <c r="E23">
-        <v>0.977995997995998</v>
+        <v>0.35610008002502</v>
       </c>
       <c r="F23">
-        <v>-0.7726664696251166</v>
+        <v>0.03381392541644095</v>
       </c>
       <c r="G23">
-        <v>0.947793965451637</v>
+        <v>0.3359721044930261</v>
       </c>
       <c r="H23">
-        <v>-0.05572908772908774</v>
+        <v>-0.009734894433723608</v>
       </c>
       <c r="I23">
-        <v>-0.001917109917109917</v>
+        <v>-0.02827631506907876</v>
       </c>
       <c r="J23">
-        <v>0.01741147751594638</v>
+        <v>0.02413485244662337</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1182,212 +1191,269 @@
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>0.02374822774822775</v>
+        <v>-0.003089825272456318</v>
       </c>
       <c r="E24">
-        <v>-0.03743036543036544</v>
+        <v>-0.0002966235741558935</v>
       </c>
       <c r="F24">
-        <v>0.01063715460454077</v>
+        <v>-0.01302767234234808</v>
       </c>
       <c r="G24">
-        <v>-0.03287509083798361</v>
+        <v>-0.009763956940989235</v>
       </c>
       <c r="H24">
-        <v>0.006485274485274486</v>
+        <v>-0.03514681178670295</v>
       </c>
       <c r="I24">
-        <v>-0.0100943620943621</v>
+        <v>-0.02136614634153658</v>
       </c>
       <c r="J24">
-        <v>-0.03539783961022665</v>
+        <v>0.0411767520721311</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>0.02694774294774295</v>
+        <v>-0.02023783255945814</v>
       </c>
       <c r="E25">
-        <v>0.007807159807159808</v>
+        <v>0.01387427446856862</v>
       </c>
       <c r="F25">
-        <v>0.003394039674106306</v>
+        <v>-0.03027790789411232</v>
       </c>
       <c r="G25">
-        <v>0.005371924022723509</v>
+        <v>0.01309848927462232</v>
       </c>
       <c r="H25">
-        <v>-0.03632484032484033</v>
+        <v>-0.004216658554164639</v>
       </c>
       <c r="I25">
-        <v>-0.02873820473820474</v>
+        <v>-0.01063446565861641</v>
       </c>
       <c r="J25">
-        <v>0.007813267860147468</v>
+        <v>-0.00755467543966292</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.02870995670995671</v>
+        <v>-0.01795125448781362</v>
       </c>
       <c r="E26">
-        <v>0.02458107658107658</v>
+        <v>-0.0001251075312768828</v>
       </c>
       <c r="F26">
-        <v>-0.0359219169804117</v>
+        <v>0.01108969075271944</v>
       </c>
       <c r="G26">
-        <v>0.02305808630880597</v>
+        <v>0.002303028575757144</v>
       </c>
       <c r="H26">
-        <v>-0.03753961353961355</v>
+        <v>-0.005230426307606577</v>
       </c>
       <c r="I26">
-        <v>-0.03225016425016425</v>
+        <v>0.001864071466017867</v>
       </c>
       <c r="J26">
-        <v>0.02875170492421516</v>
+        <v>0.01003487507645418</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>0.003551571551571552</v>
+        <v>-0.00679746619936655</v>
       </c>
       <c r="E27">
-        <v>-0.01436643836643837</v>
+        <v>-0.02064881466220366</v>
       </c>
       <c r="F27">
-        <v>0.02751899048290421</v>
+        <v>0.01646100328959356</v>
       </c>
       <c r="G27">
-        <v>-0.01957486965597527</v>
+        <v>-0.02164999741249935</v>
       </c>
       <c r="H27">
-        <v>0.02865782865782866</v>
+        <v>-0.01668802167200542</v>
       </c>
       <c r="I27">
-        <v>0.03971495171495171</v>
+        <v>-0.02613039653259913</v>
       </c>
       <c r="J27">
-        <v>-0.05568975802389658</v>
+        <v>-0.01588111682747675</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>0.02879059679059679</v>
+        <v>0.06318168079542019</v>
       </c>
       <c r="E28">
-        <v>-0.01217289617289617</v>
+        <v>0.03165735791433948</v>
       </c>
       <c r="F28">
-        <v>0.01148970913545867</v>
+        <v>0.05756794714803615</v>
       </c>
       <c r="G28">
-        <v>0.004559667743993951</v>
+        <v>0.02832346008086502</v>
       </c>
       <c r="H28">
-        <v>0.01048857448857449</v>
+        <v>-0.00824029556007389</v>
       </c>
       <c r="I28">
-        <v>0.004126060126060127</v>
+        <v>-0.0048133692033423</v>
       </c>
       <c r="J28">
-        <v>-0.05813234848114258</v>
+        <v>-0.01281741704087183</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.06836621636621637</v>
+        <v>-0.009181455795363948</v>
       </c>
       <c r="E29">
-        <v>-0.03270920070920071</v>
+        <v>0.001175940293985073</v>
       </c>
       <c r="F29">
-        <v>0.05319760647231086</v>
+        <v>0.0249560390807903</v>
       </c>
       <c r="G29">
-        <v>-0.03475641507343601</v>
+        <v>-0.001324519831129958</v>
       </c>
       <c r="H29">
-        <v>-0.01975119175119175</v>
+        <v>-0.002273703568425892</v>
       </c>
       <c r="I29">
-        <v>-0.03041409041409042</v>
+        <v>0.003953183488295872</v>
       </c>
       <c r="J29">
-        <v>-0.005869457904674652</v>
+        <v>-0.01385095255623207</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <v>-0.03876464619116154</v>
+      </c>
+      <c r="E30">
+        <v>-0.02401195650298912</v>
+      </c>
+      <c r="F30">
+        <v>0.003458564078832359</v>
+      </c>
+      <c r="G30">
+        <v>-0.03766933091733272</v>
+      </c>
+      <c r="H30">
+        <v>-0.02944568086142021</v>
+      </c>
+      <c r="I30">
+        <v>-0.0253442508360627</v>
+      </c>
+      <c r="J30">
+        <v>0.02405198717534771</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>0.004608527652131913</v>
+      </c>
+      <c r="E31">
+        <v>0.06109944477486118</v>
+      </c>
+      <c r="F31">
+        <v>0.02643680859654009</v>
+      </c>
+      <c r="G31">
+        <v>0.06111868527967132</v>
+      </c>
+      <c r="H31">
+        <v>0.00654643663660916</v>
+      </c>
+      <c r="I31">
+        <v>0.008552372138093034</v>
+      </c>
+      <c r="J31">
+        <v>0.03812239578792512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30">
-        <v>0.03730634530634531</v>
-      </c>
-      <c r="E30">
-        <v>0.0298954498954499</v>
-      </c>
-      <c r="F30">
-        <v>-0.01779844274805163</v>
-      </c>
-      <c r="G30">
-        <v>0.03347399187431875</v>
-      </c>
-      <c r="H30">
-        <v>0.02282738282738283</v>
-      </c>
-      <c r="I30">
-        <v>0.01143314343314343</v>
-      </c>
-      <c r="J30">
-        <v>0.01166048973045267</v>
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>-0.03004914751228687</v>
+      </c>
+      <c r="E32">
+        <v>0.01504161976040494</v>
+      </c>
+      <c r="F32">
+        <v>-0.0124147180452627</v>
+      </c>
+      <c r="G32">
+        <v>0.01615240603810151</v>
+      </c>
+      <c r="H32">
+        <v>0.008431925107981277</v>
+      </c>
+      <c r="I32">
+        <v>0.009905729476432368</v>
+      </c>
+      <c r="J32">
+        <v>0.03384344518930456</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -632,19 +632,19 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>0.03302554725638682</v>
+        <v>0.0332521088130272</v>
       </c>
       <c r="E4">
         <v>0.03144528336132084</v>
       </c>
       <c r="F4">
-        <v>-0.01532308973584946</v>
+        <v>0.02515305445801076</v>
       </c>
       <c r="G4">
-        <v>0.02603540300885075</v>
+        <v>0.02598655099663775</v>
       </c>
       <c r="H4">
-        <v>-0.005699593424898356</v>
+        <v>-0.005788154947038737</v>
       </c>
       <c r="I4">
         <v>-0.0116191664047916</v>
@@ -659,19 +659,19 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>-0.009429114857278712</v>
+        <v>-0.009604164901041224</v>
       </c>
       <c r="E5">
         <v>0.008746808186702046</v>
       </c>
       <c r="F5">
-        <v>-0.008737832318378023</v>
+        <v>-0.009464783101979851</v>
       </c>
       <c r="G5">
-        <v>0.007137070784267696</v>
+        <v>0.007131657282914321</v>
       </c>
       <c r="H5">
-        <v>-0.004302917575729394</v>
+        <v>-0.004435472608868151</v>
       </c>
       <c r="I5">
         <v>-0.001179184794796199</v>
@@ -686,19 +686,19 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>0.1881002390250598</v>
+        <v>0.1811200307800077</v>
       </c>
       <c r="E6">
         <v>-0.01715119778779945</v>
       </c>
       <c r="F6">
-        <v>0.04469498505044567</v>
+        <v>0.09393257901319826</v>
       </c>
       <c r="G6">
-        <v>0.1999976794994199</v>
+        <v>0.1995542493885623</v>
       </c>
       <c r="H6">
-        <v>0.9817885389471347</v>
+        <v>0.9818628564657141</v>
       </c>
       <c r="I6">
         <v>0.9576270249067561</v>
@@ -715,19 +715,19 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0.9308796002199</v>
+        <v>0.9332635658158913</v>
       </c>
       <c r="E7">
         <v>-0.01721666830416708</v>
       </c>
       <c r="F7">
-        <v>0.003219359025429931</v>
+        <v>-0.006002217626592346</v>
       </c>
       <c r="G7">
-        <v>-0.009589289397322349</v>
+        <v>-0.009547115386778847</v>
       </c>
       <c r="H7">
-        <v>0.0147339891834973</v>
+        <v>0.01497677324419331</v>
       </c>
       <c r="I7">
         <v>0.01047732411933103</v>
@@ -744,19 +744,19 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>-0.00630172807543202</v>
+        <v>-0.006352668088167022</v>
       </c>
       <c r="E8">
         <v>0.02242992260748065</v>
       </c>
       <c r="F8">
-        <v>-0.01275676226812258</v>
+        <v>-0.05158127097356618</v>
       </c>
       <c r="G8">
-        <v>0.01863781665945416</v>
+        <v>0.01864152916038229</v>
       </c>
       <c r="H8">
-        <v>0.001609951902487975</v>
+        <v>0.001558789889697472</v>
       </c>
       <c r="I8">
         <v>-0.003575954393988598</v>
@@ -773,19 +773,19 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>-0.02766569491642373</v>
+        <v>-0.02751062487765622</v>
       </c>
       <c r="E9">
         <v>0.01065512816378204</v>
       </c>
       <c r="F9">
-        <v>-0.02392336215863199</v>
+        <v>-0.001732659004222704</v>
       </c>
       <c r="G9">
-        <v>0.01254983713745928</v>
+        <v>0.01258017614504403</v>
       </c>
       <c r="H9">
-        <v>-0.0006616411654102913</v>
+        <v>-0.0006319696579924145</v>
       </c>
       <c r="I9">
         <v>5.008951252237813E-05</v>
@@ -802,19 +802,19 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>0.01749843887460972</v>
+        <v>0.01705528776382194</v>
       </c>
       <c r="E10">
         <v>0.04268732867183217</v>
       </c>
       <c r="F10">
-        <v>0.05129459892420526</v>
+        <v>-0.003465789871255335</v>
       </c>
       <c r="G10">
-        <v>0.05039222459805615</v>
+        <v>0.05040966510241627</v>
       </c>
       <c r="H10">
-        <v>0.05878977569744393</v>
+        <v>0.05893715073428769</v>
       </c>
       <c r="I10">
         <v>0.05932141033035258</v>
@@ -829,19 +829,19 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>0.1230498022624506</v>
+        <v>0.1216650124162531</v>
       </c>
       <c r="E11">
         <v>-0.01301618275404569</v>
       </c>
       <c r="F11">
-        <v>0.02080754706842953</v>
+        <v>-0.006801635016161115</v>
       </c>
       <c r="G11">
-        <v>-0.0231750987937747</v>
+        <v>-0.02317767579441895</v>
       </c>
       <c r="H11">
-        <v>-0.02432562608140652</v>
+        <v>-0.02413535253383813</v>
       </c>
       <c r="I11">
         <v>0.2622912295728074</v>
@@ -856,19 +856,19 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.2294308173577043</v>
+        <v>-0.2267503151875788</v>
       </c>
       <c r="E12">
         <v>0.01107415926853982</v>
       </c>
       <c r="F12">
-        <v>-0.00804065536550096</v>
+        <v>-0.002791181767788088</v>
       </c>
       <c r="G12">
-        <v>0.008770362692590674</v>
+        <v>0.008803520200880051</v>
       </c>
       <c r="H12">
-        <v>-0.01295213723803431</v>
+        <v>-0.0128445872111468</v>
       </c>
       <c r="I12">
         <v>-0.009278277819569454</v>
@@ -885,19 +885,19 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>0.01902793375698344</v>
+        <v>0.01890605122651281</v>
       </c>
       <c r="E13">
         <v>0.0220777060194265</v>
       </c>
       <c r="F13">
-        <v>-0.009210764759086524</v>
+        <v>-0.04058341503939218</v>
       </c>
       <c r="G13">
-        <v>0.01700492675123169</v>
+        <v>0.01700333225083306</v>
       </c>
       <c r="H13">
-        <v>-0.004266127066531767</v>
+        <v>-0.003982901495725374</v>
       </c>
       <c r="I13">
         <v>-0.002487198621799656</v>
@@ -914,19 +914,19 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.005234281308570327</v>
+        <v>0.005185621296405324</v>
       </c>
       <c r="E14">
         <v>0.04060616965154241</v>
       </c>
       <c r="F14">
-        <v>0.007366491846662832</v>
+        <v>-0.003658397978763093</v>
       </c>
       <c r="G14">
-        <v>0.04729486932371733</v>
+        <v>0.04730900982725245</v>
       </c>
       <c r="H14">
-        <v>0.02120230130057532</v>
+        <v>0.02158896389724098</v>
       </c>
       <c r="I14">
         <v>0.008973687743421936</v>
@@ -943,19 +943,19 @@
         <v>39</v>
       </c>
       <c r="C15">
-        <v>-0.04858898714724679</v>
+        <v>-0.04898569224642306</v>
       </c>
       <c r="E15">
         <v>0.02381072845268211</v>
       </c>
       <c r="F15">
-        <v>-0.01292439426742225</v>
+        <v>0.03693714550772022</v>
       </c>
       <c r="G15">
-        <v>0.03612859653214913</v>
+        <v>0.03610897502724375</v>
       </c>
       <c r="H15">
-        <v>0.02573739193434799</v>
+        <v>0.0256106824026706</v>
       </c>
       <c r="I15">
         <v>0.03034157858539465</v>
@@ -970,19 +970,19 @@
         <v>40</v>
       </c>
       <c r="C16">
-        <v>0.002594852148713037</v>
+        <v>0.002795682698920675</v>
       </c>
       <c r="E16">
         <v>-0.02405904451476113</v>
       </c>
       <c r="F16">
-        <v>-0.02285884807206873</v>
+        <v>-0.002191606142603246</v>
       </c>
       <c r="G16">
-        <v>-0.0287725391931348</v>
+        <v>-0.02877188069297017</v>
       </c>
       <c r="H16">
-        <v>-0.02248456912114228</v>
+        <v>-0.02232945558236389</v>
       </c>
       <c r="I16">
         <v>-0.01607945951986488</v>
@@ -999,19 +999,19 @@
         <v>41</v>
       </c>
       <c r="C17">
-        <v>-0.04998831499707875</v>
+        <v>-0.05008766452191613</v>
       </c>
       <c r="E17">
         <v>0.01269840917460229</v>
       </c>
       <c r="F17">
-        <v>0.02076497953054864</v>
+        <v>-0.02864968056389477</v>
       </c>
       <c r="G17">
-        <v>0.009470822367705592</v>
+        <v>0.009493526373381593</v>
       </c>
       <c r="H17">
-        <v>0.1943403815850954</v>
+        <v>0.1939673044918261</v>
       </c>
       <c r="I17">
         <v>0.001017133754283439</v>
@@ -1028,19 +1028,19 @@
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.03600951600237901</v>
+        <v>0.03580728895182223</v>
       </c>
       <c r="E18">
         <v>0.415513404378351</v>
       </c>
       <c r="F18">
-        <v>-0.0215363488120978</v>
+        <v>-0.004616878748681965</v>
       </c>
       <c r="G18">
-        <v>0.3908180657045164</v>
+        <v>0.3907130311782578</v>
       </c>
       <c r="H18">
-        <v>0.02201715850428963</v>
+        <v>0.02205569351392338</v>
       </c>
       <c r="I18">
         <v>0.009544404886101221</v>
@@ -1055,19 +1055,19 @@
         <v>43</v>
       </c>
       <c r="C19">
-        <v>0.02912292278073069</v>
+        <v>0.02942581485645372</v>
       </c>
       <c r="E19">
         <v>0.004795075198768799</v>
       </c>
       <c r="F19">
-        <v>0.03454250377453033</v>
+        <v>-0.003562307836149714</v>
       </c>
       <c r="G19">
-        <v>0.003093228773307193</v>
+        <v>0.003158582289645573</v>
       </c>
       <c r="H19">
-        <v>0.0008480792120198029</v>
+        <v>0.0008241107060276765</v>
       </c>
       <c r="I19">
         <v>-0.006618253654563414</v>
@@ -1082,19 +1082,19 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.03276830769207693</v>
+        <v>0.03288001272000318</v>
       </c>
       <c r="E20">
         <v>0.5353085673271418</v>
       </c>
       <c r="F20">
-        <v>-0.01131301340609062</v>
+        <v>0.004924644974952223</v>
       </c>
       <c r="G20">
-        <v>0.523512463878116</v>
+        <v>0.5232889038222259</v>
       </c>
       <c r="H20">
-        <v>-0.01326975181743795</v>
+        <v>-0.01306626926656732</v>
       </c>
       <c r="I20">
         <v>-0.03183967695991924</v>
@@ -1109,19 +1109,19 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.01528757782189446</v>
+        <v>-0.01502103525525881</v>
       </c>
       <c r="E21">
         <v>-0.01980588645147162</v>
       </c>
       <c r="F21">
-        <v>-0.01287266792080702</v>
+        <v>0.01061816365978669</v>
       </c>
       <c r="G21">
-        <v>-0.02336593634148408</v>
+        <v>-0.02335031983757996</v>
       </c>
       <c r="H21">
-        <v>-0.02484766371191593</v>
+        <v>-0.02488543522135881</v>
       </c>
       <c r="I21">
         <v>-0.03873141518285379</v>
@@ -1138,19 +1138,19 @@
         <v>46</v>
       </c>
       <c r="C22">
-        <v>0.03006307501576876</v>
+        <v>0.03012261753065438</v>
       </c>
       <c r="E22">
         <v>0.5999393354848338</v>
       </c>
       <c r="F22">
-        <v>-0.02296591268987048</v>
+        <v>0.02346716099044183</v>
       </c>
       <c r="G22">
-        <v>0.5812048573012143</v>
+        <v>0.581430767857692</v>
       </c>
       <c r="H22">
-        <v>-0.00375463143865786</v>
+        <v>-0.003771929442982361</v>
       </c>
       <c r="I22">
         <v>0.004501625625406406</v>
@@ -1165,19 +1165,19 @@
         <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.001728802932200733</v>
+        <v>-0.001698145924536481</v>
       </c>
       <c r="E23">
         <v>0.35610008002502</v>
       </c>
       <c r="F23">
-        <v>0.03381392541644095</v>
+        <v>0.001664913660601594</v>
       </c>
       <c r="G23">
-        <v>0.3359721044930261</v>
+        <v>0.3362457735614434</v>
       </c>
       <c r="H23">
-        <v>-0.009734894433723608</v>
+        <v>-0.009955902988975748</v>
       </c>
       <c r="I23">
         <v>-0.02827631506907876</v>
@@ -1194,19 +1194,19 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>-0.003089825272456318</v>
+        <v>-0.003006009751502438</v>
       </c>
       <c r="E24">
         <v>-0.0002966235741558935</v>
       </c>
       <c r="F24">
-        <v>-0.01302767234234808</v>
+        <v>0.05231907094453876</v>
       </c>
       <c r="G24">
-        <v>-0.009763956940989235</v>
+        <v>-0.009779877944969487</v>
       </c>
       <c r="H24">
-        <v>-0.03514681178670295</v>
+        <v>-0.03536410934102734</v>
       </c>
       <c r="I24">
         <v>-0.02136614634153658</v>
@@ -1221,19 +1221,19 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>-0.02023783255945814</v>
+        <v>-0.02019454404863601</v>
       </c>
       <c r="E25">
         <v>0.01387427446856862</v>
       </c>
       <c r="F25">
-        <v>-0.03027790789411232</v>
+        <v>0.01130683091567569</v>
       </c>
       <c r="G25">
-        <v>0.01309848927462232</v>
+        <v>0.01313018578254644</v>
       </c>
       <c r="H25">
-        <v>-0.004216658554164639</v>
+        <v>-0.004143130035782509</v>
       </c>
       <c r="I25">
         <v>-0.01063446565861641</v>
@@ -1250,19 +1250,19 @@
         <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.01795125448781362</v>
+        <v>-0.01802934750733688</v>
       </c>
       <c r="E26">
         <v>-0.0001251075312768828</v>
       </c>
       <c r="F26">
-        <v>0.01108969075271944</v>
+        <v>-0.01304546763526214</v>
       </c>
       <c r="G26">
-        <v>0.002303028575757144</v>
+        <v>0.00232144108036027</v>
       </c>
       <c r="H26">
-        <v>-0.005230426307606577</v>
+        <v>-0.005244595311148828</v>
       </c>
       <c r="I26">
         <v>0.001864071466017867</v>
@@ -1279,19 +1279,19 @@
         <v>51</v>
       </c>
       <c r="C27">
-        <v>-0.00679746619936655</v>
+        <v>-0.00654956563739141</v>
       </c>
       <c r="E27">
         <v>-0.02064881466220366</v>
       </c>
       <c r="F27">
-        <v>0.01646100328959356</v>
+        <v>-0.001883913055068527</v>
       </c>
       <c r="G27">
-        <v>-0.02164999741249935</v>
+        <v>-0.0216233964058491</v>
       </c>
       <c r="H27">
-        <v>-0.01668802167200542</v>
+        <v>-0.01682460270615068</v>
       </c>
       <c r="I27">
         <v>-0.02613039653259913</v>
@@ -1308,19 +1308,19 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>0.06318168079542019</v>
+        <v>0.06337046334261584</v>
       </c>
       <c r="E28">
         <v>0.03165735791433948</v>
       </c>
       <c r="F28">
-        <v>0.05756794714803615</v>
+        <v>-0.01069246632358974</v>
       </c>
       <c r="G28">
-        <v>0.02832346008086502</v>
+        <v>0.02831685107921277</v>
       </c>
       <c r="H28">
-        <v>-0.00824029556007389</v>
+        <v>-0.008477201119300278</v>
       </c>
       <c r="I28">
         <v>-0.0048133692033423</v>
@@ -1337,19 +1337,19 @@
         <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.009181455795363948</v>
+        <v>-0.009189117797279449</v>
       </c>
       <c r="E29">
         <v>0.001175940293985073</v>
       </c>
       <c r="F29">
-        <v>0.0249560390807903</v>
+        <v>-0.002927073538418746</v>
       </c>
       <c r="G29">
-        <v>-0.001324519831129958</v>
+        <v>-0.00135963483990871</v>
       </c>
       <c r="H29">
-        <v>-0.002273703568425892</v>
+        <v>-0.002502830125707531</v>
       </c>
       <c r="I29">
         <v>0.003953183488295872</v>
@@ -1366,19 +1366,19 @@
         <v>54</v>
       </c>
       <c r="C30">
-        <v>-0.03876464619116154</v>
+        <v>-0.03849771512442878</v>
       </c>
       <c r="E30">
         <v>-0.02401195650298912</v>
       </c>
       <c r="F30">
-        <v>0.003458564078832359</v>
+        <v>-0.002974961322122127</v>
       </c>
       <c r="G30">
-        <v>-0.03766933091733272</v>
+        <v>-0.03768065592016398</v>
       </c>
       <c r="H30">
-        <v>-0.02944568086142021</v>
+        <v>-0.02924824931206233</v>
       </c>
       <c r="I30">
         <v>-0.0253442508360627</v>
@@ -1395,19 +1395,19 @@
         <v>55</v>
       </c>
       <c r="C31">
-        <v>0.004608527652131913</v>
+        <v>0.004411772602943151</v>
       </c>
       <c r="E31">
         <v>0.06109944477486118</v>
       </c>
       <c r="F31">
-        <v>0.02643680859654009</v>
+        <v>-0.001606620515501323</v>
       </c>
       <c r="G31">
-        <v>0.06111868527967132</v>
+        <v>0.06110483427620857</v>
       </c>
       <c r="H31">
-        <v>0.00654643663660916</v>
+        <v>0.006543384135846033</v>
       </c>
       <c r="I31">
         <v>0.008552372138093034</v>
@@ -1424,19 +1424,19 @@
         <v>56</v>
       </c>
       <c r="C32">
-        <v>-0.03004914751228687</v>
+        <v>-0.03030361807590452</v>
       </c>
       <c r="E32">
         <v>0.01504161976040494</v>
       </c>
       <c r="F32">
-        <v>-0.0124147180452627</v>
+        <v>0.008087045147499366</v>
       </c>
       <c r="G32">
-        <v>0.01615240603810151</v>
+        <v>0.01610397102599276</v>
       </c>
       <c r="H32">
-        <v>0.008431925107981277</v>
+        <v>0.008492321123080279</v>
       </c>
       <c r="I32">
         <v>0.009905729476432368</v>

--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Element</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Price [USD/kg]</t>
+  </si>
+  <si>
+    <t>Tau</t>
   </si>
   <si>
     <t>Cellulase loading [wt. % cellulose]</t>
@@ -542,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,25 +635,25 @@
         <v>31</v>
       </c>
       <c r="C4">
-        <v>0.0332521088130272</v>
+        <v>-0.02075546425421857</v>
       </c>
       <c r="E4">
-        <v>0.03144528336132084</v>
+        <v>0.005042309865692394</v>
       </c>
       <c r="F4">
-        <v>0.02515305445801076</v>
+        <v>-0.02166121123806793</v>
       </c>
       <c r="G4">
-        <v>0.02598655099663775</v>
+        <v>0.01335496330931752</v>
       </c>
       <c r="H4">
-        <v>-0.005788154947038737</v>
+        <v>0.02048777467551098</v>
       </c>
       <c r="I4">
-        <v>-0.0116191664047916</v>
+        <v>0.01824716780188671</v>
       </c>
       <c r="J4">
-        <v>0.02674363586642851</v>
+        <v>0.009085997509688904</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -659,25 +662,25 @@
         <v>32</v>
       </c>
       <c r="C5">
-        <v>-0.009604164901041224</v>
+        <v>0.007693354963734197</v>
       </c>
       <c r="E5">
-        <v>0.008746808186702046</v>
+        <v>-0.02325631715425268</v>
       </c>
       <c r="F5">
-        <v>-0.009464783101979851</v>
+        <v>0.01692520431280621</v>
       </c>
       <c r="G5">
-        <v>0.007131657282914321</v>
+        <v>-0.0221224964141225</v>
       </c>
       <c r="H5">
-        <v>-0.004435472608868151</v>
+        <v>0.02085124883404995</v>
       </c>
       <c r="I5">
-        <v>-0.001179184794796199</v>
+        <v>0.02099920672796826</v>
       </c>
       <c r="J5">
-        <v>-0.01149340870093269</v>
+        <v>-0.01816587300312602</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -686,25 +689,25 @@
         <v>33</v>
       </c>
       <c r="C6">
-        <v>0.1811200307800077</v>
+        <v>0.190086849811474</v>
       </c>
       <c r="E6">
-        <v>-0.01715119778779945</v>
+        <v>0.0007217172768686909</v>
       </c>
       <c r="F6">
-        <v>0.09393257901319826</v>
+        <v>-0.1673658985047284</v>
       </c>
       <c r="G6">
-        <v>0.1995542493885623</v>
+        <v>0.1910670992905303</v>
       </c>
       <c r="H6">
-        <v>0.9818628564657141</v>
+        <v>0.9782948980437958</v>
       </c>
       <c r="I6">
-        <v>0.9576270249067561</v>
+        <v>0.9586914095476562</v>
       </c>
       <c r="J6">
-        <v>-0.2492189544869666</v>
+        <v>-0.1681921878774083</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -715,25 +718,25 @@
         <v>34</v>
       </c>
       <c r="C7">
-        <v>0.9332635658158913</v>
+        <v>0.9179461862858472</v>
       </c>
       <c r="E7">
-        <v>-0.01721666830416708</v>
+        <v>-0.01529726969989079</v>
       </c>
       <c r="F7">
-        <v>-0.006002217626592346</v>
+        <v>0.01866270781231156</v>
       </c>
       <c r="G7">
-        <v>-0.009547115386778847</v>
+        <v>-0.01543758218922745</v>
       </c>
       <c r="H7">
-        <v>0.01497677324419331</v>
+        <v>-0.000521634548865382</v>
       </c>
       <c r="I7">
-        <v>0.01047732411933103</v>
+        <v>0.002488744899549796</v>
       </c>
       <c r="J7">
-        <v>0.004336878363493521</v>
+        <v>0.01237572545298883</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -744,25 +747,25 @@
         <v>34</v>
       </c>
       <c r="C8">
-        <v>-0.006352668088167022</v>
+        <v>0.02267339389893575</v>
       </c>
       <c r="E8">
-        <v>0.02242992260748065</v>
+        <v>0.005859148458365938</v>
       </c>
       <c r="F8">
-        <v>-0.05158127097356618</v>
+        <v>-0.001369746818123762</v>
       </c>
       <c r="G8">
-        <v>0.01864152916038229</v>
+        <v>0.009201969012029508</v>
       </c>
       <c r="H8">
-        <v>0.001558789889697472</v>
+        <v>0.01322474136098965</v>
       </c>
       <c r="I8">
-        <v>-0.003575954393988598</v>
+        <v>0.01808265845130633</v>
       </c>
       <c r="J8">
-        <v>0.004825294988894489</v>
+        <v>-0.002444384308532638</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -773,25 +776,25 @@
         <v>35</v>
       </c>
       <c r="C9">
-        <v>-0.02751062487765622</v>
+        <v>-0.005903144396125775</v>
       </c>
       <c r="E9">
-        <v>0.01065512816378204</v>
+        <v>-0.004964963142598525</v>
       </c>
       <c r="F9">
-        <v>-0.001732659004222704</v>
+        <v>0.01691359884038542</v>
       </c>
       <c r="G9">
-        <v>0.01258017614504403</v>
+        <v>-0.008357971101829322</v>
       </c>
       <c r="H9">
-        <v>-0.0006319696579924145</v>
+        <v>-0.01654181605367264</v>
       </c>
       <c r="I9">
-        <v>5.008951252237813E-05</v>
+        <v>-0.0166405299776212</v>
       </c>
       <c r="J9">
-        <v>-0.0002797305718208243</v>
+        <v>-0.00500415582181092</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -802,25 +805,25 @@
         <v>36</v>
       </c>
       <c r="C10">
-        <v>0.01705528776382194</v>
+        <v>0.01073427316537092</v>
       </c>
       <c r="E10">
-        <v>0.04268732867183217</v>
+        <v>-0.01693728077349123</v>
       </c>
       <c r="F10">
-        <v>-0.003465789871255335</v>
+        <v>0.00402810253718474</v>
       </c>
       <c r="G10">
-        <v>0.05040966510241627</v>
+        <v>-0.01667759054543432</v>
       </c>
       <c r="H10">
-        <v>0.05893715073428769</v>
+        <v>0.01312963166118527</v>
       </c>
       <c r="I10">
-        <v>0.05932141033035258</v>
+        <v>0.01400161121606445</v>
       </c>
       <c r="J10">
-        <v>0.04646480992983996</v>
+        <v>0.0002204881530682367</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -829,25 +832,25 @@
         <v>37</v>
       </c>
       <c r="C11">
-        <v>0.1216650124162531</v>
+        <v>0.170625175881007</v>
       </c>
       <c r="E11">
-        <v>-0.01301618275404569</v>
+        <v>0.01356386175855447</v>
       </c>
       <c r="F11">
-        <v>-0.006801635016161115</v>
+        <v>0.001723339104711206</v>
       </c>
       <c r="G11">
-        <v>-0.02317767579441895</v>
+        <v>0.01165263034673707</v>
       </c>
       <c r="H11">
-        <v>-0.02413535253383813</v>
+        <v>0.004813076736523069</v>
       </c>
       <c r="I11">
-        <v>0.2622912295728074</v>
+        <v>0.283372950726918</v>
       </c>
       <c r="J11">
-        <v>0.05625928594457167</v>
+        <v>0.01678330456226374</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -856,25 +859,25 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>-0.2267503151875788</v>
+        <v>-0.2342679054347162</v>
       </c>
       <c r="E12">
-        <v>0.01107415926853982</v>
+        <v>0.01602507097700284</v>
       </c>
       <c r="F12">
-        <v>-0.002791181767788088</v>
+        <v>-0.0123828184478631</v>
       </c>
       <c r="G12">
-        <v>0.008803520200880051</v>
+        <v>0.01288349426753206</v>
       </c>
       <c r="H12">
-        <v>-0.0128445872111468</v>
+        <v>0.0121200899568036</v>
       </c>
       <c r="I12">
-        <v>-0.009278277819569454</v>
+        <v>0.01842309193692368</v>
       </c>
       <c r="J12">
-        <v>0.01445189021052281</v>
+        <v>0.0008407231065772599</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -885,25 +888,25 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>0.01890605122651281</v>
+        <v>0.01986162953046518</v>
       </c>
       <c r="E13">
-        <v>0.0220777060194265</v>
+        <v>-0.0238165199926608</v>
       </c>
       <c r="F13">
-        <v>-0.04058341503939218</v>
+        <v>0.003242586942550378</v>
       </c>
       <c r="G13">
-        <v>0.01700333225083306</v>
+        <v>-0.02504810271699863</v>
       </c>
       <c r="H13">
-        <v>-0.003982901495725374</v>
+        <v>-0.002375371295014852</v>
       </c>
       <c r="I13">
-        <v>-0.002487198621799656</v>
+        <v>-0.004888350915534036</v>
       </c>
       <c r="J13">
-        <v>0.03666955316490778</v>
+        <v>-0.002374911457675358</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -914,166 +917,168 @@
         <v>39</v>
       </c>
       <c r="C14">
-        <v>0.005185621296405324</v>
+        <v>-0.0009265761970630478</v>
       </c>
       <c r="E14">
-        <v>0.04060616965154241</v>
+        <v>-0.005357706934308277</v>
       </c>
       <c r="F14">
-        <v>-0.003658397978763093</v>
+        <v>-0.01572704319650382</v>
       </c>
       <c r="G14">
-        <v>0.04730900982725245</v>
+        <v>-0.001030114788321088</v>
       </c>
       <c r="H14">
-        <v>0.02158896389724098</v>
+        <v>-0.002626785225071409</v>
       </c>
       <c r="I14">
-        <v>0.008973687743421936</v>
+        <v>-0.009953175374127014</v>
       </c>
       <c r="J14">
-        <v>-0.03433913981657415</v>
+        <v>-0.005951924740790759</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>-0.01521276723251069</v>
+      </c>
+      <c r="E15">
+        <v>0.008826900449076016</v>
+      </c>
+      <c r="F15">
+        <v>-0.002460972559782314</v>
+      </c>
+      <c r="G15">
+        <v>0.006825339864331169</v>
+      </c>
+      <c r="H15">
+        <v>-0.01219663920786557</v>
+      </c>
+      <c r="I15">
+        <v>-0.007891357275654291</v>
+      </c>
+      <c r="J15">
+        <v>0.009866471589788242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C15">
-        <v>-0.04898569224642306</v>
-      </c>
-      <c r="E15">
-        <v>0.02381072845268211</v>
-      </c>
-      <c r="F15">
-        <v>0.03693714550772022</v>
-      </c>
-      <c r="G15">
-        <v>0.03610897502724375</v>
-      </c>
-      <c r="H15">
-        <v>0.0256106824026706</v>
-      </c>
-      <c r="I15">
-        <v>0.03034157858539465</v>
-      </c>
-      <c r="J15">
-        <v>-0.0310454344709153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C16">
-        <v>0.002795682698920675</v>
+        <v>-0.05687626115505044</v>
       </c>
       <c r="E16">
-        <v>-0.02405904451476113</v>
+        <v>0.01366162547446502</v>
       </c>
       <c r="F16">
-        <v>-0.002191606142603246</v>
+        <v>-0.01259901490937025</v>
       </c>
       <c r="G16">
-        <v>-0.02877188069297017</v>
+        <v>0.01129930842046119</v>
       </c>
       <c r="H16">
-        <v>-0.02232945558236389</v>
+        <v>0.005731908613276344</v>
       </c>
       <c r="I16">
-        <v>-0.01607945951986488</v>
+        <v>0.008303432108137283</v>
       </c>
       <c r="J16">
-        <v>0.04004475878149182</v>
+        <v>0.003777283835352129</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C17">
-        <v>-0.05008766452191613</v>
+        <v>0.001191848879673955</v>
       </c>
       <c r="E17">
-        <v>0.01269840917460229</v>
+        <v>-0.004579489815179592</v>
       </c>
       <c r="F17">
-        <v>-0.02864968056389477</v>
+        <v>0.009341072012383165</v>
       </c>
       <c r="G17">
-        <v>0.009493526373381593</v>
+        <v>-0.00192810610032051</v>
       </c>
       <c r="H17">
-        <v>0.1939673044918261</v>
+        <v>0.009250408786016349</v>
       </c>
       <c r="I17">
-        <v>0.001017133754283439</v>
+        <v>0.005896042603841703</v>
       </c>
       <c r="J17">
-        <v>0.01671293079104498</v>
+        <v>-0.01866231369554364</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C18">
-        <v>0.03580728895182223</v>
+        <v>-0.04500695844027833</v>
       </c>
       <c r="E18">
-        <v>0.415513404378351</v>
+        <v>-0.006328275229131008</v>
       </c>
       <c r="F18">
-        <v>-0.004616878748681965</v>
+        <v>0.004305003485575991</v>
       </c>
       <c r="G18">
-        <v>0.3907130311782578</v>
+        <v>-0.006282055419975143</v>
       </c>
       <c r="H18">
-        <v>0.02205569351392338</v>
+        <v>0.2006195269047811</v>
       </c>
       <c r="I18">
-        <v>0.009544404886101221</v>
+        <v>-0.0002331010653240426</v>
       </c>
       <c r="J18">
-        <v>0.05259728250435229</v>
+        <v>0.03178822877938627</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C19">
-        <v>0.02942581485645372</v>
+        <v>0.03254536325381453</v>
       </c>
       <c r="E19">
-        <v>0.004795075198768799</v>
+        <v>0.3571049478521978</v>
       </c>
       <c r="F19">
-        <v>-0.003562307836149714</v>
+        <v>-0.2614663898380847</v>
       </c>
       <c r="G19">
-        <v>0.003158582289645573</v>
+        <v>0.3024103853896024</v>
       </c>
       <c r="H19">
-        <v>0.0008241107060276765</v>
+        <v>-0.006922312596892503</v>
       </c>
       <c r="I19">
-        <v>-0.006618253654563414</v>
+        <v>0.002854861554194462</v>
       </c>
       <c r="J19">
-        <v>0.01984336634478431</v>
+        <v>0.005945945188544834</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1082,25 +1087,25 @@
         <v>44</v>
       </c>
       <c r="C20">
-        <v>0.03288001272000318</v>
+        <v>-0.01378461232738449</v>
       </c>
       <c r="E20">
-        <v>0.5353085673271418</v>
+        <v>0.01449200064368002</v>
       </c>
       <c r="F20">
-        <v>0.004924644974952223</v>
+        <v>0.00392290878448912</v>
       </c>
       <c r="G20">
-        <v>0.5232889038222259</v>
+        <v>0.01639308015506113</v>
       </c>
       <c r="H20">
-        <v>-0.01306626926656732</v>
+        <v>-0.009243457713738306</v>
       </c>
       <c r="I20">
-        <v>-0.03183967695991924</v>
+        <v>-0.002026378833055153</v>
       </c>
       <c r="J20">
-        <v>0.1379680869233063</v>
+        <v>0.003725705289230807</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1109,340 +1114,367 @@
         <v>45</v>
       </c>
       <c r="C21">
-        <v>-0.01502103525525881</v>
+        <v>0.009628469473138779</v>
       </c>
       <c r="E21">
-        <v>-0.01980588645147162</v>
+        <v>0.4155502250060089</v>
       </c>
       <c r="F21">
-        <v>0.01061816365978669</v>
+        <v>-0.3139017854829448</v>
       </c>
       <c r="G21">
-        <v>-0.02335031983757996</v>
+        <v>0.3992109185598633</v>
       </c>
       <c r="H21">
-        <v>-0.02488543522135881</v>
+        <v>-0.006424798336991932</v>
       </c>
       <c r="I21">
-        <v>-0.03873141518285379</v>
+        <v>0.003556671886266875</v>
       </c>
       <c r="J21">
-        <v>-0.01069569874612065</v>
+        <v>0.05714080012608681</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C22">
-        <v>0.03012261753065438</v>
+        <v>-0.02631386937255477</v>
       </c>
       <c r="E22">
-        <v>0.5999393354848338</v>
+        <v>-0.03460739783229591</v>
       </c>
       <c r="F22">
-        <v>0.02346716099044183</v>
+        <v>0.02604651205811312</v>
       </c>
       <c r="G22">
-        <v>0.581430767857692</v>
+        <v>-0.04068259478601808</v>
       </c>
       <c r="H22">
-        <v>-0.003771929442982361</v>
+        <v>-0.00832042305281692</v>
       </c>
       <c r="I22">
-        <v>0.004501625625406406</v>
+        <v>-0.01086898229075929</v>
       </c>
       <c r="J22">
-        <v>0.08947027022149188</v>
+        <v>-0.005994377622536762</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C23">
-        <v>-0.001698145924536481</v>
+        <v>0.03646647400265896</v>
       </c>
       <c r="E23">
-        <v>0.35610008002502</v>
+        <v>0.5309777341671092</v>
       </c>
       <c r="F23">
-        <v>0.001664913660601594</v>
+        <v>-0.4262411839363217</v>
       </c>
       <c r="G23">
-        <v>0.3362457735614434</v>
+        <v>0.474676540094207</v>
       </c>
       <c r="H23">
-        <v>-0.009955902988975748</v>
+        <v>-0.03105973612238944</v>
       </c>
       <c r="I23">
-        <v>-0.02827631506907876</v>
+        <v>-0.01179273109570924</v>
       </c>
       <c r="J23">
-        <v>0.02413485244662337</v>
+        <v>0.04752182590647765</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C24">
-        <v>-0.003006009751502438</v>
+        <v>0.03861548832861952</v>
       </c>
       <c r="E24">
-        <v>-0.0002966235741558935</v>
+        <v>0.6002661160426446</v>
       </c>
       <c r="F24">
-        <v>0.05231907094453876</v>
+        <v>-0.4682286596026625</v>
       </c>
       <c r="G24">
-        <v>-0.009779877944969487</v>
+        <v>0.5594479474502924</v>
       </c>
       <c r="H24">
-        <v>-0.03536410934102734</v>
+        <v>-0.003945998653839946</v>
       </c>
       <c r="I24">
-        <v>-0.02136614634153658</v>
+        <v>0.01310582932423317</v>
       </c>
       <c r="J24">
-        <v>0.0411767520721311</v>
+        <v>0.03214160503391993</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C25">
-        <v>-0.02019454404863601</v>
+        <v>0.004829696353187853</v>
       </c>
       <c r="E25">
-        <v>0.01387427446856862</v>
+        <v>-0.01572299544491982</v>
       </c>
       <c r="F25">
-        <v>0.01130683091567569</v>
+        <v>0.009077595120615956</v>
       </c>
       <c r="G25">
-        <v>0.01313018578254644</v>
+        <v>-0.008699357003195502</v>
       </c>
       <c r="H25">
-        <v>-0.004143130035782509</v>
+        <v>0.01647802894712115</v>
       </c>
       <c r="I25">
-        <v>-0.01063446565861641</v>
+        <v>0.01985164889006595</v>
       </c>
       <c r="J25">
-        <v>-0.00755467543966292</v>
+        <v>0.01695133135317435</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C26">
-        <v>-0.01802934750733688</v>
+        <v>0.0251736850069474</v>
       </c>
       <c r="E26">
-        <v>-0.0001251075312768828</v>
+        <v>0.0278626376265055</v>
       </c>
       <c r="F26">
-        <v>-0.01304546763526214</v>
+        <v>-0.0280886572846081</v>
       </c>
       <c r="G26">
-        <v>0.00232144108036027</v>
+        <v>0.02737456189708814</v>
       </c>
       <c r="H26">
-        <v>-0.005244595311148828</v>
+        <v>0.01479568849582754</v>
       </c>
       <c r="I26">
-        <v>0.001864071466017867</v>
+        <v>0.01161479844859194</v>
       </c>
       <c r="J26">
-        <v>0.01003487507645418</v>
+        <v>0.01150302503309641</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C27">
-        <v>-0.00654956563739141</v>
+        <v>0.01978017813520712</v>
       </c>
       <c r="E27">
-        <v>-0.02064881466220366</v>
+        <v>-0.02411564237262569</v>
       </c>
       <c r="F27">
-        <v>-0.001883913055068527</v>
+        <v>0.02448607494106486</v>
       </c>
       <c r="G27">
-        <v>-0.0216233964058491</v>
+        <v>-0.03039165726502427</v>
       </c>
       <c r="H27">
-        <v>-0.01682460270615068</v>
+        <v>-0.02160591984023679</v>
       </c>
       <c r="I27">
-        <v>-0.02613039653259913</v>
+        <v>-0.0217181802287272</v>
       </c>
       <c r="J27">
-        <v>-0.01588111682747675</v>
+        <v>0.021790288928191</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C28">
-        <v>0.06337046334261584</v>
+        <v>-0.01418493368739735</v>
       </c>
       <c r="E28">
-        <v>0.03165735791433948</v>
+        <v>-0.002178940119157605</v>
       </c>
       <c r="F28">
-        <v>-0.01069246632358974</v>
+        <v>0.02331975117350465</v>
       </c>
       <c r="G28">
-        <v>0.02831685107921277</v>
+        <v>0.006141895002250063</v>
       </c>
       <c r="H28">
-        <v>-0.008477201119300278</v>
+        <v>0.01348723801148952</v>
       </c>
       <c r="I28">
-        <v>-0.0048133692033423</v>
+        <v>0.008258797386351895</v>
       </c>
       <c r="J28">
-        <v>-0.01281741704087183</v>
+        <v>-0.002025167507291089</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C29">
-        <v>-0.009189117797279449</v>
+        <v>0.01222952948118118</v>
       </c>
       <c r="E29">
-        <v>0.001175940293985073</v>
+        <v>0.000995333127813325</v>
       </c>
       <c r="F29">
-        <v>-0.002927073538418746</v>
+        <v>-0.003665643472760602</v>
       </c>
       <c r="G29">
-        <v>-0.00135963483990871</v>
+        <v>0.0009606315902865694</v>
       </c>
       <c r="H29">
-        <v>-0.002502830125707531</v>
+        <v>-0.007706770484270819</v>
       </c>
       <c r="I29">
-        <v>0.003953183488295872</v>
+        <v>-0.008030665089226603</v>
       </c>
       <c r="J29">
-        <v>-0.01385095255623207</v>
+        <v>0.007329934477465544</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C30">
-        <v>-0.03849771512442878</v>
+        <v>0.004066137282645491</v>
       </c>
       <c r="E30">
-        <v>-0.02401195650298912</v>
+        <v>0.001864446122577845</v>
       </c>
       <c r="F30">
-        <v>-0.002974961322122127</v>
+        <v>-0.001299941036342879</v>
       </c>
       <c r="G30">
-        <v>-0.03768065592016398</v>
+        <v>-0.004544938991770552</v>
       </c>
       <c r="H30">
-        <v>-0.02924824931206233</v>
+        <v>0.001521980892879235</v>
       </c>
       <c r="I30">
-        <v>-0.0253442508360627</v>
+        <v>0.003067178618687144</v>
       </c>
       <c r="J30">
-        <v>0.02405198717534771</v>
+        <v>0.002912328071778229</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C31">
-        <v>0.004411772602943151</v>
+        <v>-0.004469446930777877</v>
       </c>
       <c r="E31">
-        <v>0.06109944477486118</v>
+        <v>0.007706773364270934</v>
       </c>
       <c r="F31">
-        <v>-0.001606620515501323</v>
+        <v>-0.00855108965431798</v>
       </c>
       <c r="G31">
-        <v>0.06110483427620857</v>
+        <v>0.01097591388251681</v>
       </c>
       <c r="H31">
-        <v>0.006543384135846033</v>
+        <v>0.01737306098292244</v>
       </c>
       <c r="I31">
-        <v>0.008552372138093034</v>
+        <v>0.01505415967416639</v>
       </c>
       <c r="J31">
-        <v>0.03812239578792512</v>
+        <v>-0.00992664732026315</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C32">
-        <v>-0.03030361807590452</v>
+        <v>0.009798856807954271</v>
       </c>
       <c r="E32">
-        <v>0.01504161976040494</v>
+        <v>0.0002690629547625182</v>
       </c>
       <c r="F32">
-        <v>0.008087045147499366</v>
+        <v>-0.006235248642727538</v>
       </c>
       <c r="G32">
-        <v>0.01610397102599276</v>
+        <v>-0.004602996598175196</v>
       </c>
       <c r="H32">
-        <v>0.008492321123080279</v>
+        <v>0.001189512239580489</v>
       </c>
       <c r="I32">
-        <v>0.009905729476432368</v>
+        <v>0.00375449650217986</v>
       </c>
       <c r="J32">
-        <v>0.03384344518930456</v>
+        <v>0.003200962355649179</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <v>0.005782119591284784</v>
+      </c>
+      <c r="E33">
+        <v>0.003262640866505634</v>
+      </c>
+      <c r="F33">
+        <v>-0.001440092642595965</v>
+      </c>
+      <c r="G33">
+        <v>-0.008348216531730538</v>
+      </c>
+      <c r="H33">
+        <v>-0.00658234403929376</v>
+      </c>
+      <c r="I33">
+        <v>-0.00460812575232503</v>
+      </c>
+      <c r="J33">
+        <v>0.002545877768706861</v>
       </c>
     </row>
   </sheetData>
@@ -1450,10 +1482,10 @@
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
